--- a/data/customer_kpi_unique_updated.xlsx
+++ b/data/customer_kpi_unique_updated.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980AB1BC-4C16-4AD2-9D81-3F93627FBA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DEA0E-078E-4120-9D44-6612CB8E01CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="report" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report!$A$1:$P$473</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="229">
   <si>
     <t>department</t>
   </si>
@@ -704,6 +707,10 @@
   </si>
   <si>
     <t>LG CHEMICAL LTD</t>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1085,7 +1092,7 @@
   <dimension ref="A1:P473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2454,6 +2461,9 @@
       <c r="F42" s="2">
         <v>45683.360636533391</v>
       </c>
+      <c r="G42" t="s">
+        <v>228</v>
+      </c>
       <c r="H42" s="2">
         <v>45662.136597181539</v>
       </c>
@@ -2483,6 +2493,9 @@
       <c r="F43" s="2">
         <v>45681.105844866717</v>
       </c>
+      <c r="G43" t="s">
+        <v>228</v>
+      </c>
       <c r="H43" s="2">
         <v>45669.586747644513</v>
       </c>
@@ -2512,6 +2525,9 @@
       <c r="F44" s="2">
         <v>45676.808217551908</v>
       </c>
+      <c r="G44" t="s">
+        <v>228</v>
+      </c>
       <c r="H44" s="2">
         <v>45657.983715237096</v>
       </c>
@@ -2541,6 +2557,9 @@
       <c r="F45" s="2">
         <v>45684.257511533389</v>
       </c>
+      <c r="G45" t="s">
+        <v>228</v>
+      </c>
       <c r="H45" s="2">
         <v>45666.598506903763</v>
       </c>
@@ -2570,6 +2589,9 @@
       <c r="F46" s="2">
         <v>45679.267164311168</v>
       </c>
+      <c r="G46" t="s">
+        <v>228</v>
+      </c>
       <c r="H46" s="2">
         <v>45656.431574033391</v>
       </c>
@@ -2599,6 +2621,9 @@
       <c r="F47" s="2">
         <v>45681.651886533393</v>
       </c>
+      <c r="G47" t="s">
+        <v>228</v>
+      </c>
       <c r="H47" s="2">
         <v>45668.932893477839</v>
       </c>
@@ -2628,6 +2653,9 @@
       <c r="F48" s="2">
         <v>45683.630474496364</v>
       </c>
+      <c r="G48" t="s">
+        <v>228</v>
+      </c>
       <c r="H48" s="2">
         <v>45663.539884218582</v>
       </c>
@@ -2657,6 +2685,9 @@
       <c r="F49" s="2">
         <v>45676.748865700058</v>
       </c>
+      <c r="G49" t="s">
+        <v>228</v>
+      </c>
       <c r="H49" s="2">
         <v>45668.831388848208</v>
       </c>
@@ -2686,6 +2717,9 @@
       <c r="F50" s="2">
         <v>45679.702025422281</v>
       </c>
+      <c r="G50" t="s">
+        <v>228</v>
+      </c>
       <c r="H50" s="2">
         <v>45664.260266163023</v>
       </c>
@@ -2715,6 +2749,9 @@
       <c r="F51" s="2">
         <v>45682.66202542228</v>
       </c>
+      <c r="G51" t="s">
+        <v>228</v>
+      </c>
       <c r="H51" s="2">
         <v>45660.312534681543</v>
       </c>
@@ -2744,6 +2781,9 @@
       <c r="F52" s="2">
         <v>45672.512893477833</v>
       </c>
+      <c r="G52" t="s">
+        <v>228</v>
+      </c>
       <c r="H52" s="2">
         <v>45669.907777737099</v>
       </c>
@@ -2773,6 +2813,9 @@
       <c r="F53" s="2">
         <v>45683.662152737103</v>
       </c>
+      <c r="G53" t="s">
+        <v>228</v>
+      </c>
       <c r="H53" s="2">
         <v>45665.668969866732</v>
       </c>
@@ -2802,6 +2845,9 @@
       <c r="F54" s="2">
         <v>45684.69599532969</v>
       </c>
+      <c r="G54" t="s">
+        <v>228</v>
+      </c>
       <c r="H54" s="2">
         <v>45657.314247644499</v>
       </c>
@@ -2831,6 +2877,9 @@
       <c r="F55" s="2">
         <v>45677.26317125561</v>
       </c>
+      <c r="G55" t="s">
+        <v>228</v>
+      </c>
       <c r="H55" s="2">
         <v>45658.000983755614</v>
       </c>
@@ -2860,6 +2909,9 @@
       <c r="F56" s="2">
         <v>45672.951736070427</v>
       </c>
+      <c r="G56" t="s">
+        <v>228</v>
+      </c>
       <c r="H56" s="2">
         <v>45670.376064774129</v>
       </c>
@@ -2889,6 +2941,9 @@
       <c r="F57" s="2">
         <v>45681.45307866302</v>
       </c>
+      <c r="G57" t="s">
+        <v>228</v>
+      </c>
       <c r="H57" s="2">
         <v>45669.165775422283</v>
       </c>
@@ -2918,6 +2973,9 @@
       <c r="F58" s="2">
         <v>45679.723865700063</v>
       </c>
+      <c r="G58" t="s">
+        <v>228</v>
+      </c>
       <c r="H58" s="2">
         <v>45666.839942088947</v>
       </c>
@@ -2947,6 +3005,9 @@
       <c r="F59" s="2">
         <v>45678.246087922278</v>
       </c>
+      <c r="G59" t="s">
+        <v>228</v>
+      </c>
       <c r="H59" s="2">
         <v>45654.548622644499</v>
       </c>
@@ -2976,6 +3037,9 @@
       <c r="F60" s="2">
         <v>45683.868032366721</v>
       </c>
+      <c r="G60" t="s">
+        <v>228</v>
+      </c>
       <c r="H60" s="2">
         <v>45658.120659681539</v>
       </c>
@@ -3005,6 +3069,9 @@
       <c r="F61" s="2">
         <v>45678.928020792649</v>
       </c>
+      <c r="G61" t="s">
+        <v>228</v>
+      </c>
       <c r="H61" s="2">
         <v>45658.627974496347</v>
       </c>
@@ -3034,6 +3101,9 @@
       <c r="F62" s="2">
         <v>45681.059421255617</v>
       </c>
+      <c r="G62" t="s">
+        <v>228</v>
+      </c>
       <c r="H62" s="2">
         <v>45668.544513848203</v>
       </c>
@@ -3063,6 +3133,9 @@
       <c r="F63" s="2">
         <v>45681.404490700057</v>
       </c>
+      <c r="G63" t="s">
+        <v>228</v>
+      </c>
       <c r="H63" s="2">
         <v>45662.537361070426</v>
       </c>
@@ -3092,6 +3165,9 @@
       <c r="F64" s="2">
         <v>45674.336770792652</v>
       </c>
+      <c r="G64" t="s">
+        <v>228</v>
+      </c>
       <c r="H64" s="2">
         <v>45656.491759218567</v>
       </c>
@@ -3121,6 +3197,9 @@
       <c r="F65" s="2">
         <v>45672.024293940798</v>
       </c>
+      <c r="G65" t="s">
+        <v>228</v>
+      </c>
       <c r="H65" s="2">
         <v>45656.258923570429</v>
       </c>
@@ -3150,6 +3229,9 @@
       <c r="F66" s="2">
         <v>45675.233495329689</v>
       </c>
+      <c r="G66" t="s">
+        <v>228</v>
+      </c>
       <c r="H66" s="2">
         <v>45654.858587922281</v>
       </c>
@@ -3179,6 +3261,9 @@
       <c r="F67" s="2">
         <v>45676.357187459318</v>
       </c>
+      <c r="G67" t="s">
+        <v>228</v>
+      </c>
       <c r="H67" s="2">
         <v>45667.814652737092</v>
       </c>
@@ -3208,6 +3293,9 @@
       <c r="F68" s="2">
         <v>45675.206550885247</v>
       </c>
+      <c r="G68" t="s">
+        <v>228</v>
+      </c>
       <c r="H68" s="2">
         <v>45652.507615700059</v>
       </c>
@@ -3237,6 +3325,9 @@
       <c r="F69" s="2">
         <v>45674.474166625987</v>
       </c>
+      <c r="G69" t="s">
+        <v>228</v>
+      </c>
       <c r="H69" s="2">
         <v>45652.624918940797</v>
       </c>
@@ -3266,6 +3357,9 @@
       <c r="F70" s="2">
         <v>45673.009675885252</v>
       </c>
+      <c r="G70" t="s">
+        <v>228</v>
+      </c>
       <c r="H70" s="2">
         <v>45662.349004588948</v>
       </c>
@@ -3295,6 +3389,9 @@
       <c r="F71" s="2">
         <v>45675.688599496352</v>
       </c>
+      <c r="G71" t="s">
+        <v>228</v>
+      </c>
       <c r="H71" s="2">
         <v>45665.61824070006</v>
       </c>
@@ -3324,6 +3421,9 @@
       <c r="F72" s="2">
         <v>45678.240555514873</v>
       </c>
+      <c r="G72" t="s">
+        <v>228</v>
+      </c>
       <c r="H72" s="2">
         <v>45662.31454857043</v>
       </c>
@@ -3353,6 +3453,9 @@
       <c r="F73" s="2">
         <v>45675.940451348208</v>
       </c>
+      <c r="G73" t="s">
+        <v>228</v>
+      </c>
       <c r="H73" s="2">
         <v>45662.130335607457</v>
       </c>
@@ -3382,6 +3485,9 @@
       <c r="F74" s="2">
         <v>45671.941087922278</v>
       </c>
+      <c r="G74" t="s">
+        <v>228</v>
+      </c>
       <c r="H74" s="2">
         <v>45662.330370329677</v>
       </c>
@@ -3411,6 +3517,9 @@
       <c r="F75" s="2">
         <v>45675.294363385241</v>
       </c>
+      <c r="G75" t="s">
+        <v>228</v>
+      </c>
       <c r="H75" s="2">
         <v>45653.042036996347</v>
       </c>
@@ -3440,6 +3549,9 @@
       <c r="F76" s="2">
         <v>45675.52166662598</v>
       </c>
+      <c r="G76" t="s">
+        <v>228</v>
+      </c>
       <c r="H76" s="2">
         <v>45653.518078663023</v>
       </c>
@@ -3469,6 +3581,9 @@
       <c r="F77" s="2">
         <v>45678.056099496353</v>
       </c>
+      <c r="G77" t="s">
+        <v>228</v>
+      </c>
       <c r="H77" s="2">
         <v>45661.742314774128</v>
       </c>
@@ -3498,6 +3613,9 @@
       <c r="F78" s="2">
         <v>45679.138680514872</v>
       </c>
+      <c r="G78" t="s">
+        <v>228</v>
+      </c>
       <c r="H78" s="2">
         <v>45651.982036996364</v>
       </c>
@@ -3527,6 +3645,9 @@
       <c r="F79" s="2">
         <v>45683.687476811167</v>
       </c>
+      <c r="G79" t="s">
+        <v>228</v>
+      </c>
       <c r="H79" s="2">
         <v>45664.518194403761</v>
       </c>
@@ -3556,6 +3677,9 @@
       <c r="F80" s="2">
         <v>45675.78089116302</v>
       </c>
+      <c r="G80" t="s">
+        <v>228</v>
+      </c>
       <c r="H80" s="2">
         <v>45656.722013848208</v>
       </c>
@@ -3585,6 +3709,9 @@
       <c r="F81" s="2">
         <v>45684.586655051913</v>
       </c>
+      <c r="G81" t="s">
+        <v>228</v>
+      </c>
       <c r="H81" s="2">
         <v>45654.445879588937</v>
       </c>
@@ -3614,6 +3741,9 @@
       <c r="F82" s="2">
         <v>45682.183923570417</v>
       </c>
+      <c r="G82" t="s">
+        <v>228</v>
+      </c>
       <c r="H82" s="2">
         <v>45670.878286996347</v>
       </c>
@@ -3643,6 +3773,9 @@
       <c r="F83" s="2">
         <v>45671.268449033392</v>
       </c>
+      <c r="G83" t="s">
+        <v>228</v>
+      </c>
       <c r="H83" s="2">
         <v>45669.377499959322</v>
       </c>
@@ -3672,6 +3805,9 @@
       <c r="F84" s="2">
         <v>45684.538310144497</v>
       </c>
+      <c r="G84" t="s">
+        <v>228</v>
+      </c>
       <c r="H84" s="2">
         <v>45653.494687459322</v>
       </c>
@@ -3701,6 +3837,9 @@
       <c r="F85" s="2">
         <v>45673.502071718583</v>
       </c>
+      <c r="G85" t="s">
+        <v>228</v>
+      </c>
       <c r="H85" s="2">
         <v>45650.848009218578</v>
       </c>
@@ -3730,6 +3869,9 @@
       <c r="F86" s="2">
         <v>45678.945648107467</v>
       </c>
+      <c r="G86" t="s">
+        <v>228</v>
+      </c>
       <c r="H86" s="2">
         <v>45660.227129588937</v>
       </c>
@@ -3759,6 +3901,9 @@
       <c r="F87" s="2">
         <v>45684.67906245932</v>
       </c>
+      <c r="G87" t="s">
+        <v>228</v>
+      </c>
       <c r="H87" s="2">
         <v>45657.575080977833</v>
       </c>
@@ -3788,6 +3933,9 @@
       <c r="F88" s="2">
         <v>45678.812395792651</v>
       </c>
+      <c r="G88" t="s">
+        <v>228</v>
+      </c>
       <c r="H88" s="2">
         <v>45669.082442088948</v>
       </c>
@@ -3817,6 +3965,9 @@
       <c r="F89" s="2">
         <v>45673.673634218583</v>
       </c>
+      <c r="G89" t="s">
+        <v>228</v>
+      </c>
       <c r="H89" s="2">
         <v>45658.827326348197</v>
       </c>
@@ -3846,6 +3997,9 @@
       <c r="F90" s="2">
         <v>45675.107754588949</v>
       </c>
+      <c r="G90" t="s">
+        <v>228</v>
+      </c>
       <c r="H90" s="2">
         <v>45650.450185144502</v>
       </c>
@@ -3875,6 +4029,9 @@
       <c r="F91" s="2">
         <v>45672.246562459317</v>
       </c>
+      <c r="G91" t="s">
+        <v>228</v>
+      </c>
       <c r="H91" s="2">
         <v>45651.217268477827</v>
       </c>
@@ -3904,6 +4061,9 @@
       <c r="F92" s="2">
         <v>45680.563009218567</v>
       </c>
+      <c r="G92" t="s">
+        <v>228</v>
+      </c>
       <c r="H92" s="2">
         <v>45659.451643477827</v>
       </c>
@@ -3933,6 +4093,9 @@
       <c r="F93" s="2">
         <v>45676.25714116302</v>
       </c>
+      <c r="G93" t="s">
+        <v>228</v>
+      </c>
       <c r="H93" s="2">
         <v>45665.442256903763</v>
       </c>
@@ -3962,6 +4125,9 @@
       <c r="F94" s="2">
         <v>45675.66337958895</v>
       </c>
+      <c r="G94" t="s">
+        <v>228</v>
+      </c>
       <c r="H94" s="2">
         <v>45655.725740700058</v>
       </c>
@@ -3991,6 +4157,9 @@
       <c r="F95" s="2">
         <v>45674.397280051911</v>
       </c>
+      <c r="G95" t="s">
+        <v>228</v>
+      </c>
       <c r="H95" s="2">
         <v>45664.351770792651</v>
       </c>
@@ -4020,6 +4189,9 @@
       <c r="F96" s="2">
         <v>45678.591631903757</v>
       </c>
+      <c r="G96" t="s">
+        <v>228</v>
+      </c>
       <c r="H96" s="2">
         <v>45653.415682829691</v>
       </c>
@@ -4049,6 +4221,9 @@
       <c r="F97" s="2">
         <v>45672.717280051911</v>
       </c>
+      <c r="G97" t="s">
+        <v>228</v>
+      </c>
       <c r="H97" s="2">
         <v>45662.128078663023</v>
       </c>
@@ -4078,6 +4253,9 @@
       <c r="F98" s="2">
         <v>45672.023067088943</v>
       </c>
+      <c r="G98" t="s">
+        <v>228</v>
+      </c>
       <c r="H98" s="2">
         <v>45661.538449033389</v>
       </c>
@@ -4107,6 +4285,9 @@
       <c r="F99" s="2">
         <v>45681.163217551912</v>
       </c>
+      <c r="G99" t="s">
+        <v>228</v>
+      </c>
       <c r="H99" s="2">
         <v>45652.590358755617</v>
       </c>
@@ -4136,6 +4317,9 @@
       <c r="F100" s="2">
         <v>45675.404872644503</v>
       </c>
+      <c r="G100" t="s">
+        <v>228</v>
+      </c>
       <c r="H100" s="2">
         <v>45667.017743014883</v>
       </c>
@@ -4165,6 +4349,9 @@
       <c r="F101" s="2">
         <v>45684.33825227413</v>
       </c>
+      <c r="G101" t="s">
+        <v>228</v>
+      </c>
       <c r="H101" s="2">
         <v>45667.000810144513</v>
       </c>
@@ -4194,6 +4381,9 @@
       <c r="F102" s="2">
         <v>45676.303194403758</v>
       </c>
+      <c r="G102" t="s">
+        <v>228</v>
+      </c>
       <c r="H102" s="2">
         <v>45653.175786996348</v>
       </c>
@@ -4223,6 +4413,9 @@
       <c r="F103" s="2">
         <v>45675.518425885253</v>
       </c>
+      <c r="G103" t="s">
+        <v>228</v>
+      </c>
       <c r="H103" s="2">
         <v>45663.324884218579</v>
       </c>
@@ -4252,6 +4445,9 @@
       <c r="F104" s="2">
         <v>45680.278368014871</v>
       </c>
+      <c r="G104" t="s">
+        <v>228</v>
+      </c>
       <c r="H104" s="2">
         <v>45654.269930514871</v>
       </c>
@@ -4281,6 +4477,9 @@
       <c r="F105" s="2">
         <v>45673.761400422278</v>
       </c>
+      <c r="G105" t="s">
+        <v>228</v>
+      </c>
       <c r="H105" s="2">
         <v>45660.175717551909</v>
       </c>
@@ -4310,6 +4509,9 @@
       <c r="F106" s="2">
         <v>45674.195937459321</v>
       </c>
+      <c r="G106" t="s">
+        <v>228</v>
+      </c>
       <c r="H106" s="2">
         <v>45670.610648107468</v>
       </c>
@@ -4339,6 +4541,9 @@
       <c r="F107" s="2">
         <v>45683.962361070429</v>
       </c>
+      <c r="G107" t="s">
+        <v>228</v>
+      </c>
       <c r="H107" s="2">
         <v>45667.24145829265</v>
       </c>
@@ -4368,6 +4573,9 @@
       <c r="F108" s="2">
         <v>45682.416041625977</v>
       </c>
+      <c r="G108" t="s">
+        <v>228</v>
+      </c>
       <c r="H108" s="2">
         <v>45657.385324033392</v>
       </c>
@@ -4397,6 +4605,9 @@
       <c r="F109" s="2">
         <v>45682.890173570428</v>
       </c>
+      <c r="G109" t="s">
+        <v>228</v>
+      </c>
       <c r="H109" s="2">
         <v>45669.117789311167</v>
       </c>
@@ -4426,6 +4637,9 @@
       <c r="F110" s="2">
         <v>45680.602604125983</v>
       </c>
+      <c r="G110" t="s">
+        <v>228</v>
+      </c>
       <c r="H110" s="2">
         <v>45667.182997644501</v>
       </c>
@@ -4455,6 +4669,9 @@
       <c r="F111" s="2">
         <v>45673.449120329693</v>
       </c>
+      <c r="G111" t="s">
+        <v>228</v>
+      </c>
       <c r="H111" s="2">
         <v>45658.158726811169</v>
       </c>
@@ -4484,6 +4701,9 @@
       <c r="F112" s="2">
         <v>45678.298148107468</v>
       </c>
+      <c r="G112" t="s">
+        <v>228</v>
+      </c>
       <c r="H112" s="2">
         <v>45658.335705977843</v>
       </c>
@@ -4513,6 +4733,9 @@
       <c r="F113" s="2">
         <v>45681.305856440798</v>
       </c>
+      <c r="G113" t="s">
+        <v>228</v>
+      </c>
       <c r="H113" s="2">
         <v>45653.751921255607</v>
       </c>
@@ -4542,6 +4765,9 @@
       <c r="F114" s="2">
         <v>45671.912430514873</v>
       </c>
+      <c r="G114" t="s">
+        <v>228</v>
+      </c>
       <c r="H114" s="2">
         <v>45651.774733755607</v>
       </c>
@@ -4571,6 +4797,9 @@
       <c r="F115" s="2">
         <v>45682.733599496358</v>
       </c>
+      <c r="G115" t="s">
+        <v>228</v>
+      </c>
       <c r="H115" s="2">
         <v>45657.438715237098</v>
       </c>
@@ -4600,6 +4829,9 @@
       <c r="F116" s="2">
         <v>45674.944363385242</v>
       </c>
+      <c r="G116" t="s">
+        <v>228</v>
+      </c>
       <c r="H116" s="2">
         <v>45660.243715237099</v>
       </c>
@@ -4629,6 +4861,9 @@
       <c r="F117" s="2">
         <v>45679.602685144513</v>
       </c>
+      <c r="G117" t="s">
+        <v>228</v>
+      </c>
       <c r="H117" s="2">
         <v>45658.893518477838</v>
       </c>
@@ -4658,6 +4893,9 @@
       <c r="F118" s="2">
         <v>45682.45376153339</v>
       </c>
+      <c r="G118" t="s">
+        <v>228</v>
+      </c>
       <c r="H118" s="2">
         <v>45650.934305514871</v>
       </c>
@@ -4687,6 +4925,9 @@
       <c r="F119" s="2">
         <v>45673.923425885238</v>
       </c>
+      <c r="G119" t="s">
+        <v>228</v>
+      </c>
       <c r="H119" s="2">
         <v>45669.525821718576</v>
       </c>
@@ -4716,6 +4957,9 @@
       <c r="F120" s="2">
         <v>45673.835856440797</v>
       </c>
+      <c r="G120" t="s">
+        <v>228</v>
+      </c>
       <c r="H120" s="2">
         <v>45661.418078663017</v>
       </c>
@@ -4745,6 +4989,9 @@
       <c r="F121" s="2">
         <v>45675.678344866727</v>
       </c>
+      <c r="G121" t="s">
+        <v>228</v>
+      </c>
       <c r="H121" s="2">
         <v>45669.822800885253</v>
       </c>
@@ -4774,6 +5021,9 @@
       <c r="F122" s="2">
         <v>45682.85120366302</v>
       </c>
+      <c r="G122" t="s">
+        <v>228</v>
+      </c>
       <c r="H122" s="2">
         <v>45654.700636533387</v>
       </c>
@@ -4803,6 +5053,9 @@
       <c r="F123" s="2">
         <v>45671.264826348197</v>
       </c>
+      <c r="G123" t="s">
+        <v>228</v>
+      </c>
       <c r="H123" s="2">
         <v>45670.351354125982</v>
       </c>
@@ -4832,6 +5085,9 @@
       <c r="F124" s="2">
         <v>45676.914039311167</v>
       </c>
+      <c r="G124" t="s">
+        <v>228</v>
+      </c>
       <c r="H124" s="2">
         <v>45662.554293940797</v>
       </c>
@@ -4861,6 +5117,9 @@
       <c r="F125" s="2">
         <v>45678.986805514869</v>
       </c>
+      <c r="G125" t="s">
+        <v>228</v>
+      </c>
       <c r="H125" s="2">
         <v>45670.214733755623</v>
       </c>
@@ -4890,6 +5149,9 @@
       <c r="F126" s="2">
         <v>45676.053032366734</v>
       </c>
+      <c r="G126" t="s">
+        <v>228</v>
+      </c>
       <c r="H126" s="2">
         <v>45670.02449070006</v>
       </c>
@@ -4919,6 +5181,9 @@
       <c r="F127" s="2">
         <v>45676.937337922282</v>
       </c>
+      <c r="G127" t="s">
+        <v>228</v>
+      </c>
       <c r="H127" s="2">
         <v>45651.275567088953</v>
       </c>
@@ -4948,6 +5213,9 @@
       <c r="F128" s="2">
         <v>45680.003888848209</v>
       </c>
+      <c r="G128" t="s">
+        <v>228</v>
+      </c>
       <c r="H128" s="2">
         <v>45667.467777737103</v>
       </c>
@@ -4977,6 +5245,9 @@
       <c r="F129" s="2">
         <v>45680.125080977843</v>
       </c>
+      <c r="G129" t="s">
+        <v>228</v>
+      </c>
       <c r="H129" s="2">
         <v>45658.93682866302</v>
       </c>
@@ -5006,6 +5277,9 @@
       <c r="F130" s="2">
         <v>45675.043599496363</v>
       </c>
+      <c r="G130" t="s">
+        <v>228</v>
+      </c>
       <c r="H130" s="2">
         <v>45655.704050885237</v>
       </c>
@@ -5035,6 +5309,9 @@
       <c r="F131" s="2">
         <v>45682.530381903758</v>
       </c>
+      <c r="G131" t="s">
+        <v>228</v>
+      </c>
       <c r="H131" s="2">
         <v>45660.766493014868</v>
       </c>
@@ -5064,6 +5341,9 @@
       <c r="F132" s="2">
         <v>45682.374826348198</v>
       </c>
+      <c r="G132" t="s">
+        <v>228</v>
+      </c>
       <c r="H132" s="2">
         <v>45662.025636533392</v>
       </c>
@@ -5093,6 +5373,9 @@
       <c r="F133" s="2">
         <v>45676.843900422282</v>
       </c>
+      <c r="G133" t="s">
+        <v>228</v>
+      </c>
       <c r="H133" s="2">
         <v>45652.742083292651</v>
       </c>
@@ -5122,6 +5405,9 @@
       <c r="F134" s="2">
         <v>45675.523611070428</v>
       </c>
+      <c r="G134" t="s">
+        <v>228</v>
+      </c>
       <c r="H134" s="2">
         <v>45666.762997644502</v>
       </c>
@@ -5151,6 +5437,9 @@
       <c r="F135" s="2">
         <v>45680.397268477827</v>
       </c>
+      <c r="G135" t="s">
+        <v>228</v>
+      </c>
       <c r="H135" s="2">
         <v>45656.510509218577</v>
       </c>
@@ -5180,6 +5469,9 @@
       <c r="F136" s="2">
         <v>45678.367847181536</v>
       </c>
+      <c r="G136" t="s">
+        <v>228</v>
+      </c>
       <c r="H136" s="2">
         <v>45668.317800885241</v>
       </c>
@@ -5209,6 +5501,9 @@
       <c r="F137" s="2">
         <v>45674.324027737093</v>
       </c>
+      <c r="G137" t="s">
+        <v>228</v>
+      </c>
       <c r="H137" s="2">
         <v>45664.824803200063</v>
       </c>
@@ -5238,6 +5533,9 @@
       <c r="F138" s="2">
         <v>45671.271747644503</v>
       </c>
+      <c r="G138" t="s">
+        <v>228</v>
+      </c>
       <c r="H138" s="2">
         <v>45650.670601811173</v>
       </c>
@@ -5267,6 +5565,9 @@
       <c r="F139" s="2">
         <v>45676.609583292651</v>
       </c>
+      <c r="G139" t="s">
+        <v>228</v>
+      </c>
       <c r="H139" s="2">
         <v>45661.286365700063</v>
       </c>
@@ -5296,6 +5597,9 @@
       <c r="F140" s="2">
         <v>45684.60560181117</v>
       </c>
+      <c r="G140" t="s">
+        <v>228</v>
+      </c>
       <c r="H140" s="2">
         <v>45663.697036996353</v>
       </c>
@@ -5325,6 +5629,9 @@
       <c r="F141" s="2">
         <v>45675.928182829688</v>
       </c>
+      <c r="G141" t="s">
+        <v>228</v>
+      </c>
       <c r="H141" s="2">
         <v>45668.342615700058</v>
       </c>
@@ -5354,6 +5661,9 @@
       <c r="F142" s="2">
         <v>45673.563043940798</v>
       </c>
+      <c r="G142" t="s">
+        <v>228</v>
+      </c>
       <c r="H142" s="2">
         <v>45652.428460607473</v>
       </c>
@@ -5383,6 +5693,9 @@
       <c r="F143" s="2">
         <v>45677.221400422277</v>
       </c>
+      <c r="G143" t="s">
+        <v>228</v>
+      </c>
       <c r="H143" s="2">
         <v>45656.991493014873</v>
       </c>
@@ -5412,6 +5725,9 @@
       <c r="F144" s="2">
         <v>45674.235254588937</v>
       </c>
+      <c r="G144" t="s">
+        <v>228</v>
+      </c>
       <c r="H144" s="2">
         <v>45660.603310144499</v>
       </c>
@@ -5441,6 +5757,9 @@
       <c r="F145" s="2">
         <v>45680.245636533393</v>
       </c>
+      <c r="G145" t="s">
+        <v>228</v>
+      </c>
       <c r="H145" s="2">
         <v>45670.561307829688</v>
       </c>
@@ -5470,6 +5789,9 @@
       <c r="F146" s="2">
         <v>45681.25577542228</v>
       </c>
+      <c r="G146" t="s">
+        <v>228</v>
+      </c>
       <c r="H146" s="2">
         <v>45659.867939774129</v>
       </c>
@@ -5499,6 +5821,9 @@
       <c r="F147" s="2">
         <v>45676.58594903339</v>
       </c>
+      <c r="G147" t="s">
+        <v>228</v>
+      </c>
       <c r="H147" s="2">
         <v>45670.210821718567</v>
       </c>
@@ -5528,6 +5853,9 @@
       <c r="F148" s="2">
         <v>45677.084270792649</v>
       </c>
+      <c r="G148" t="s">
+        <v>228</v>
+      </c>
       <c r="H148" s="2">
         <v>45671.018969866724</v>
       </c>
@@ -5557,6 +5885,9 @@
       <c r="F149" s="2">
         <v>45674.504305514871</v>
       </c>
+      <c r="G149" t="s">
+        <v>228</v>
+      </c>
       <c r="H149" s="2">
         <v>45656.045868014873</v>
       </c>
@@ -5586,6 +5917,9 @@
       <c r="F150" s="2">
         <v>45678.822569403761</v>
       </c>
+      <c r="G150" t="s">
+        <v>228</v>
+      </c>
       <c r="H150" s="2">
         <v>45671.133321718567</v>
       </c>
@@ -5615,6 +5949,9 @@
       <c r="F151" s="2">
         <v>45674.873310144503</v>
       </c>
+      <c r="G151" t="s">
+        <v>228</v>
+      </c>
       <c r="H151" s="2">
         <v>45659.638935144503</v>
       </c>
@@ -5644,6 +5981,9 @@
       <c r="F152" s="2">
         <v>45672.104270792654</v>
       </c>
+      <c r="G152" t="s">
+        <v>228</v>
+      </c>
       <c r="H152" s="2">
         <v>45658.659756903762</v>
       </c>
@@ -5673,6 +6013,9 @@
       <c r="F153" s="2">
         <v>45675.153541625987</v>
       </c>
+      <c r="G153" t="s">
+        <v>228</v>
+      </c>
       <c r="H153" s="2">
         <v>45665.902465237094</v>
       </c>
@@ -5702,6 +6045,9 @@
       <c r="F154" s="2">
         <v>45673.952256903758</v>
       </c>
+      <c r="G154" t="s">
+        <v>228</v>
+      </c>
       <c r="H154" s="2">
         <v>45666.470902737092</v>
       </c>
@@ -5731,6 +6077,9 @@
       <c r="F155" s="2">
         <v>45671.88921292228</v>
       </c>
+      <c r="G155" t="s">
+        <v>228</v>
+      </c>
       <c r="H155" s="2">
         <v>45664.307349496346</v>
       </c>
@@ -5760,6 +6109,9 @@
       <c r="F156" s="2">
         <v>45680.961689774129</v>
       </c>
+      <c r="G156" t="s">
+        <v>228</v>
+      </c>
       <c r="H156" s="2">
         <v>45665.524942088938</v>
       </c>
@@ -5789,6 +6141,9 @@
       <c r="F157" s="2">
         <v>45673.471678200061</v>
       </c>
+      <c r="G157" t="s">
+        <v>228</v>
+      </c>
       <c r="H157" s="2">
         <v>45663.086342551913</v>
       </c>
@@ -5818,6 +6173,9 @@
       <c r="F158" s="2">
         <v>45671.594618014868</v>
       </c>
+      <c r="G158" t="s">
+        <v>228</v>
+      </c>
       <c r="H158" s="2">
         <v>45653.181527737092</v>
       </c>
@@ -5847,6 +6205,9 @@
       <c r="F159" s="2">
         <v>45681.221099496353</v>
       </c>
+      <c r="G159" t="s">
+        <v>228</v>
+      </c>
       <c r="H159" s="2">
         <v>45653.557766163023</v>
       </c>
@@ -5876,6 +6237,9 @@
       <c r="F160" s="2">
         <v>45671.847951348209</v>
       </c>
+      <c r="G160" t="s">
+        <v>228</v>
+      </c>
       <c r="H160" s="2">
         <v>45658.343356440797</v>
       </c>
@@ -5905,6 +6269,9 @@
       <c r="F161" s="2">
         <v>45676.602048570428</v>
       </c>
+      <c r="G161" t="s">
+        <v>228</v>
+      </c>
       <c r="H161" s="2">
         <v>45659.979548570431</v>
       </c>
@@ -5934,6 +6301,9 @@
       <c r="F162" s="2">
         <v>45679.95486107043</v>
       </c>
+      <c r="G162" t="s">
+        <v>228</v>
+      </c>
       <c r="H162" s="2">
         <v>45651.283240700061</v>
       </c>
@@ -5963,6 +6333,9 @@
       <c r="F163" s="2">
         <v>45673.948749959323</v>
       </c>
+      <c r="G163" t="s">
+        <v>228</v>
+      </c>
       <c r="H163" s="2">
         <v>45663.485868014883</v>
       </c>
@@ -5992,6 +6365,9 @@
       <c r="F164" s="2">
         <v>45677.03534718154</v>
       </c>
+      <c r="G164" t="s">
+        <v>228</v>
+      </c>
       <c r="H164" s="2">
         <v>45662.6436689408</v>
       </c>
@@ -6021,6 +6397,9 @@
       <c r="F165" s="2">
         <v>45672.505636533388</v>
       </c>
+      <c r="G165" t="s">
+        <v>228</v>
+      </c>
       <c r="H165" s="2">
         <v>45652.565509218577</v>
       </c>
@@ -6050,6 +6429,9 @@
       <c r="F166" s="2">
         <v>45684.670983755612</v>
       </c>
+      <c r="G166" t="s">
+        <v>228</v>
+      </c>
       <c r="H166" s="2">
         <v>45654.162870329688</v>
       </c>
@@ -6079,6 +6461,9 @@
       <c r="F167" s="2">
         <v>45673.368518477837</v>
       </c>
+      <c r="G167" t="s">
+        <v>228</v>
+      </c>
       <c r="H167" s="2">
         <v>45662.919953663019</v>
       </c>
@@ -6108,6 +6493,9 @@
       <c r="F168" s="2">
         <v>45681.772997644497</v>
       </c>
+      <c r="G168" t="s">
+        <v>228</v>
+      </c>
       <c r="H168" s="2">
         <v>45657.079768477837</v>
       </c>
@@ -6137,6 +6525,9 @@
       <c r="F169" s="2">
         <v>45683.442708292649</v>
       </c>
+      <c r="G169" t="s">
+        <v>228</v>
+      </c>
       <c r="H169" s="2">
         <v>45659.089953663017</v>
       </c>
@@ -6166,6 +6557,9 @@
       <c r="F170" s="2">
         <v>45672.182766163023</v>
       </c>
+      <c r="G170" t="s">
+        <v>228</v>
+      </c>
       <c r="H170" s="2">
         <v>45657.390543940797</v>
       </c>
@@ -6195,6 +6589,9 @@
       <c r="F171" s="2">
         <v>45682.469675885237</v>
       </c>
+      <c r="G171" t="s">
+        <v>228</v>
+      </c>
       <c r="H171" s="2">
         <v>45664.672673570429</v>
       </c>
@@ -6224,6 +6621,9 @@
       <c r="F172" s="2">
         <v>45681.664097181543</v>
       </c>
+      <c r="G172" t="s">
+        <v>228</v>
+      </c>
       <c r="H172" s="2">
         <v>45656.605474496348</v>
       </c>
@@ -6253,6 +6653,9 @@
       <c r="F173" s="2">
         <v>45682.401585607462</v>
       </c>
+      <c r="G173" t="s">
+        <v>228</v>
+      </c>
       <c r="H173" s="2">
         <v>45666.225069403758</v>
       </c>
@@ -6282,6 +6685,9 @@
       <c r="F174" s="2">
         <v>45676.802743014872</v>
       </c>
+      <c r="G174" t="s">
+        <v>228</v>
+      </c>
       <c r="H174" s="2">
         <v>45661.312233755612</v>
       </c>
@@ -6311,6 +6717,9 @@
       <c r="F175" s="2">
         <v>45680.804594866728</v>
       </c>
+      <c r="G175" t="s">
+        <v>228</v>
+      </c>
       <c r="H175" s="2">
         <v>45664.368761533391</v>
       </c>
@@ -6340,6 +6749,9 @@
       <c r="F176" s="2">
         <v>45674.694363385242</v>
       </c>
+      <c r="G176" t="s">
+        <v>228</v>
+      </c>
       <c r="H176" s="2">
         <v>45654.228657366722</v>
       </c>
@@ -6369,6 +6781,9 @@
       <c r="F177" s="2">
         <v>45684.520833292649</v>
       </c>
+      <c r="G177" t="s">
+        <v>228</v>
+      </c>
       <c r="H177" s="2">
         <v>45656.91474532969</v>
       </c>
@@ -6398,6 +6813,9 @@
       <c r="F178" s="2">
         <v>45684.585069403758</v>
       </c>
+      <c r="G178" t="s">
+        <v>228</v>
+      </c>
       <c r="H178" s="2">
         <v>45660.628842551909</v>
       </c>
@@ -6427,6 +6845,9 @@
       <c r="F179" s="2">
         <v>45674.617453663021</v>
       </c>
+      <c r="G179" t="s">
+        <v>228</v>
+      </c>
       <c r="H179" s="2">
         <v>45669.374571718567</v>
       </c>
@@ -6456,6 +6877,9 @@
       <c r="F180" s="2">
         <v>45683.394016163023</v>
       </c>
+      <c r="G180" t="s">
+        <v>228</v>
+      </c>
       <c r="H180" s="2">
         <v>45670.350115700057</v>
       </c>
@@ -6485,6 +6909,9 @@
       <c r="F181" s="2">
         <v>45681.280243014873</v>
       </c>
+      <c r="G181" t="s">
+        <v>228</v>
+      </c>
       <c r="H181" s="2">
         <v>45650.993472181537</v>
       </c>
@@ -6514,6 +6941,9 @@
       <c r="F182" s="2">
         <v>45676.005960607457</v>
       </c>
+      <c r="G182" t="s">
+        <v>228</v>
+      </c>
       <c r="H182" s="2">
         <v>45654.216527737102</v>
       </c>
@@ -6543,6 +6973,9 @@
       <c r="F183" s="2">
         <v>45676.449259218578</v>
       </c>
+      <c r="G183" t="s">
+        <v>228</v>
+      </c>
       <c r="H183" s="2">
         <v>45669.124050885242</v>
       </c>
@@ -6572,6 +7005,9 @@
       <c r="F184" s="2">
         <v>45684.795243014873</v>
       </c>
+      <c r="G184" t="s">
+        <v>228</v>
+      </c>
       <c r="H184" s="2">
         <v>45662.255080977833</v>
       </c>
@@ -6601,6 +7037,9 @@
       <c r="F185" s="2">
         <v>45676.346620329678</v>
       </c>
+      <c r="G185" t="s">
+        <v>228</v>
+      </c>
       <c r="H185" s="2">
         <v>45651.464525422278</v>
       </c>
@@ -6630,6 +7069,9 @@
       <c r="F186" s="2">
         <v>45678.219895792652</v>
       </c>
+      <c r="G186" t="s">
+        <v>228</v>
+      </c>
       <c r="H186" s="2">
         <v>45656.090451348209</v>
       </c>
@@ -6659,6 +7101,9 @@
       <c r="F187" s="2">
         <v>45678.494884218577</v>
       </c>
+      <c r="G187" t="s">
+        <v>228</v>
+      </c>
       <c r="H187" s="2">
         <v>45653.312314774143</v>
       </c>
@@ -6688,6 +7133,9 @@
       <c r="F188" s="2">
         <v>45675.753379588947</v>
       </c>
+      <c r="G188" t="s">
+        <v>228</v>
+      </c>
       <c r="H188" s="2">
         <v>45660.231516163018</v>
       </c>
@@ -6717,6 +7165,9 @@
       <c r="F189" s="2">
         <v>45677.631157366734</v>
       </c>
+      <c r="G189" t="s">
+        <v>228</v>
+      </c>
       <c r="H189" s="2">
         <v>45655.959791625981</v>
       </c>
@@ -6746,6 +7197,9 @@
       <c r="F190" s="2">
         <v>45676.728032366722</v>
       </c>
+      <c r="G190" t="s">
+        <v>228</v>
+      </c>
       <c r="H190" s="2">
         <v>45650.840902737087</v>
       </c>
@@ -6775,6 +7229,9 @@
       <c r="F191" s="2">
         <v>45678.216261533387</v>
       </c>
+      <c r="G191" t="s">
+        <v>228</v>
+      </c>
       <c r="H191" s="2">
         <v>45657.460474496351</v>
       </c>
@@ -6804,6 +7261,9 @@
       <c r="F192" s="2">
         <v>45672.73296292228</v>
       </c>
+      <c r="G192" t="s">
+        <v>228</v>
+      </c>
       <c r="H192" s="2">
         <v>45661.585902737097</v>
       </c>
@@ -6833,6 +7293,9 @@
       <c r="F193" s="2">
         <v>45676.827592551912</v>
       </c>
+      <c r="G193" t="s">
+        <v>228</v>
+      </c>
       <c r="H193" s="2">
         <v>45663.183009218577</v>
       </c>
@@ -6862,6 +7325,9 @@
       <c r="F194" s="2">
         <v>45675.946238385237</v>
       </c>
+      <c r="G194" t="s">
+        <v>228</v>
+      </c>
       <c r="H194" s="2">
         <v>45659.685636533388</v>
       </c>
@@ -6891,6 +7357,9 @@
       <c r="F195" s="2">
         <v>45681.244571718576</v>
       </c>
+      <c r="G195" t="s">
+        <v>228</v>
+      </c>
       <c r="H195" s="2">
         <v>45653.902824033386</v>
       </c>
@@ -6920,6 +7389,9 @@
       <c r="F196" s="2">
         <v>45679.4014814408</v>
       </c>
+      <c r="G196" t="s">
+        <v>228</v>
+      </c>
       <c r="H196" s="2">
         <v>45664.382777737097</v>
       </c>
@@ -6949,6 +7421,9 @@
       <c r="F197" s="2">
         <v>45675.307997644501</v>
       </c>
+      <c r="G197" t="s">
+        <v>228</v>
+      </c>
       <c r="H197" s="2">
         <v>45654.582661996363</v>
       </c>
@@ -6978,6 +7453,9 @@
       <c r="F198" s="2">
         <v>45684.591597181541</v>
       </c>
+      <c r="G198" t="s">
+        <v>228</v>
+      </c>
       <c r="H198" s="2">
         <v>45666.967094866734</v>
       </c>
@@ -7007,6 +7485,9 @@
       <c r="F199" s="2">
         <v>45684.166493014869</v>
       </c>
+      <c r="G199" t="s">
+        <v>228</v>
+      </c>
       <c r="H199" s="2">
         <v>45663.169861070433</v>
       </c>
@@ -7036,6 +7517,9 @@
       <c r="F200" s="2">
         <v>45679.297337922282</v>
       </c>
+      <c r="G200" t="s">
+        <v>228</v>
+      </c>
       <c r="H200" s="2">
         <v>45670.128298570431</v>
       </c>
@@ -7065,6 +7549,9 @@
       <c r="F201" s="2">
         <v>45676.293495329694</v>
       </c>
+      <c r="G201" t="s">
+        <v>228</v>
+      </c>
       <c r="H201" s="2">
         <v>45663.814016163022</v>
       </c>
@@ -7094,6 +7581,9 @@
       <c r="F202" s="2">
         <v>45679.010370329677</v>
       </c>
+      <c r="G202" t="s">
+        <v>228</v>
+      </c>
       <c r="H202" s="2">
         <v>45659.647118014873</v>
       </c>
@@ -7123,6 +7613,9 @@
       <c r="F203" s="2">
         <v>45673.430451348213</v>
       </c>
+      <c r="G203" t="s">
+        <v>228</v>
+      </c>
       <c r="H203" s="2">
         <v>45661.091053200063</v>
       </c>
@@ -7152,6 +7645,9 @@
       <c r="F204" s="2">
         <v>45674.373599496357</v>
       </c>
+      <c r="G204" t="s">
+        <v>228</v>
+      </c>
       <c r="H204" s="2">
         <v>45651.625080977843</v>
       </c>
@@ -7181,6 +7677,9 @@
       <c r="F205" s="2">
         <v>45677.710775422282</v>
       </c>
+      <c r="G205" t="s">
+        <v>228</v>
+      </c>
       <c r="H205" s="2">
         <v>45651.204085607467</v>
       </c>
@@ -7210,6 +7709,9 @@
       <c r="F206" s="2">
         <v>45675.189895792653</v>
       </c>
+      <c r="G206" t="s">
+        <v>228</v>
+      </c>
       <c r="H206" s="2">
         <v>45663.472870329693</v>
       </c>
@@ -7239,6 +7741,9 @@
       <c r="F207" s="2">
         <v>45677.934756903764</v>
       </c>
+      <c r="G207" t="s">
+        <v>228</v>
+      </c>
       <c r="H207" s="2">
         <v>45656.448483755623</v>
       </c>
@@ -7268,6 +7773,9 @@
       <c r="F208" s="2">
         <v>45673.92592588524</v>
       </c>
+      <c r="G208" t="s">
+        <v>228</v>
+      </c>
       <c r="H208" s="2">
         <v>45668.997858755611</v>
       </c>
@@ -7297,6 +7805,9 @@
       <c r="F209" s="2">
         <v>45680.469918940798</v>
       </c>
+      <c r="G209" t="s">
+        <v>228</v>
+      </c>
       <c r="H209" s="2">
         <v>45659.869363385253</v>
       </c>
@@ -7326,6 +7837,9 @@
       <c r="F210" s="2">
         <v>45683.61405088524</v>
       </c>
+      <c r="G210" t="s">
+        <v>228</v>
+      </c>
       <c r="H210" s="2">
         <v>45661.93068282969</v>
       </c>
@@ -7355,6 +7869,9 @@
       <c r="F211" s="2">
         <v>45680.061932829689</v>
       </c>
+      <c r="G211" t="s">
+        <v>228</v>
+      </c>
       <c r="H211" s="2">
         <v>45658.873032366733</v>
       </c>
@@ -7384,6 +7901,9 @@
       <c r="F212" s="2">
         <v>45676.540613385238</v>
       </c>
+      <c r="G212" t="s">
+        <v>228</v>
+      </c>
       <c r="H212" s="2">
         <v>45669.937245329689</v>
       </c>
@@ -7413,6 +7933,9 @@
       <c r="F213" s="2">
         <v>45683.652326348209</v>
       </c>
+      <c r="G213" t="s">
+        <v>228</v>
+      </c>
       <c r="H213" s="2">
         <v>45660.340624959317</v>
       </c>
@@ -7442,6 +7965,9 @@
       <c r="F214" s="2">
         <v>45683.507268477842</v>
       </c>
+      <c r="G214" t="s">
+        <v>228</v>
+      </c>
       <c r="H214" s="2">
         <v>45658.682951348208</v>
       </c>
@@ -7471,6 +7997,9 @@
       <c r="F215" s="2">
         <v>45673.426817088948</v>
       </c>
+      <c r="G215" t="s">
+        <v>228</v>
+      </c>
       <c r="H215" s="2">
         <v>45660.759317088938</v>
       </c>
@@ -7500,6 +8029,9 @@
       <c r="F216" s="2">
         <v>45682.102743014882</v>
       </c>
+      <c r="G216" t="s">
+        <v>228</v>
+      </c>
       <c r="H216" s="2">
         <v>45656.256030051911</v>
       </c>
@@ -7529,6 +8061,9 @@
       <c r="F217" s="2">
         <v>45684.417893477839</v>
       </c>
+      <c r="G217" t="s">
+        <v>228</v>
+      </c>
       <c r="H217" s="2">
         <v>45663.57844903339</v>
       </c>
@@ -7558,6 +8093,9 @@
       <c r="F218" s="2">
         <v>45676.318518477827</v>
       </c>
+      <c r="G218" t="s">
+        <v>228</v>
+      </c>
       <c r="H218" s="2">
         <v>45657.97624995932</v>
       </c>
@@ -7587,6 +8125,9 @@
       <c r="F219" s="2">
         <v>45679.064594866722</v>
       </c>
+      <c r="G219" t="s">
+        <v>228</v>
+      </c>
       <c r="H219" s="2">
         <v>45662.737453663023</v>
       </c>
@@ -7616,6 +8157,9 @@
       <c r="F220" s="2">
         <v>45684.0889351445</v>
       </c>
+      <c r="G220" t="s">
+        <v>228</v>
+      </c>
       <c r="H220" s="2">
         <v>45669.700231440802</v>
       </c>
@@ -7645,6 +8189,9 @@
       <c r="F221" s="2">
         <v>45683.197407366722</v>
       </c>
+      <c r="G221" t="s">
+        <v>228</v>
+      </c>
       <c r="H221" s="2">
         <v>45653.968055514873</v>
       </c>
@@ -7674,6 +8221,9 @@
       <c r="F222" s="2">
         <v>45681.804988385244</v>
       </c>
+      <c r="G222" t="s">
+        <v>228</v>
+      </c>
       <c r="H222" s="2">
         <v>45662.473286996363</v>
       </c>
@@ -7703,6 +8253,9 @@
       <c r="F223" s="2">
         <v>45676.469108755613</v>
       </c>
+      <c r="G223" t="s">
+        <v>228</v>
+      </c>
       <c r="H223" s="2">
         <v>45664.774826348214</v>
       </c>
@@ -7732,6 +8285,9 @@
       <c r="F224" s="2">
         <v>45680.998205977827</v>
       </c>
+      <c r="G224" t="s">
+        <v>228</v>
+      </c>
       <c r="H224" s="2">
         <v>45664.24696755191</v>
       </c>
@@ -7761,6 +8317,9 @@
       <c r="F225" s="2">
         <v>45677.588599496346</v>
       </c>
+      <c r="G225" t="s">
+        <v>228</v>
+      </c>
       <c r="H225" s="2">
         <v>45658.895798570433</v>
       </c>
@@ -7790,6 +8349,9 @@
       <c r="F226" s="2">
         <v>45678.559918940802</v>
       </c>
+      <c r="G226" t="s">
+        <v>228</v>
+      </c>
       <c r="H226" s="2">
         <v>45656.252661996346</v>
       </c>
@@ -7819,6 +8381,9 @@
       <c r="F227" s="2">
         <v>45673.332835607463</v>
       </c>
+      <c r="G227" t="s">
+        <v>228</v>
+      </c>
       <c r="H227" s="2">
         <v>45667.605370329693</v>
       </c>
@@ -7848,6 +8413,9 @@
       <c r="F228" s="2">
         <v>45673.556134218583</v>
       </c>
+      <c r="G228" t="s">
+        <v>228</v>
+      </c>
       <c r="H228" s="2">
         <v>45659.945509218567</v>
       </c>
@@ -7877,6 +8445,9 @@
       <c r="F229" s="2">
         <v>45671.520960607457</v>
       </c>
+      <c r="G229" t="s">
+        <v>228</v>
+      </c>
       <c r="H229" s="2">
         <v>45651.878067088946</v>
       </c>
@@ -7906,6 +8477,9 @@
       <c r="F230" s="2">
         <v>45676.576064774134</v>
       </c>
+      <c r="G230" t="s">
+        <v>228</v>
+      </c>
       <c r="H230" s="2">
         <v>45652.037372644503</v>
       </c>
@@ -7935,6 +8509,9 @@
       <c r="F231" s="2">
         <v>45676.718414311174</v>
       </c>
+      <c r="G231" t="s">
+        <v>228</v>
+      </c>
       <c r="H231" s="2">
         <v>45651.608900422281</v>
       </c>
@@ -7964,6 +8541,9 @@
       <c r="F232" s="2">
         <v>45684.617025422282</v>
       </c>
+      <c r="G232" t="s">
+        <v>228</v>
+      </c>
       <c r="H232" s="2">
         <v>45654.110891163022</v>
       </c>
@@ -7993,6 +8573,9 @@
       <c r="F233" s="2">
         <v>45674.243993014883</v>
       </c>
+      <c r="G233" t="s">
+        <v>228</v>
+      </c>
       <c r="H233" s="2">
         <v>45658.035266163017</v>
       </c>
@@ -8022,6 +8605,9 @@
       <c r="F234" s="2">
         <v>45678.027870329694</v>
       </c>
+      <c r="G234" t="s">
+        <v>228</v>
+      </c>
       <c r="H234" s="2">
         <v>45663.323518477839</v>
       </c>
@@ -8051,6 +8637,9 @@
       <c r="F235" s="2">
         <v>45672.476550885243</v>
       </c>
+      <c r="G235" t="s">
+        <v>228</v>
+      </c>
       <c r="H235" s="2">
         <v>45662.463020792653</v>
       </c>
@@ -8080,6 +8669,9 @@
       <c r="F236" s="2">
         <v>45677.939050885238</v>
       </c>
+      <c r="G236" t="s">
+        <v>228</v>
+      </c>
       <c r="H236" s="2">
         <v>45669.060682829688</v>
       </c>
@@ -8109,6 +8701,9 @@
       <c r="F237" s="2">
         <v>45681.425428200047</v>
       </c>
+      <c r="G237" t="s">
+        <v>228</v>
+      </c>
       <c r="H237" s="2">
         <v>45661.191273107463</v>
       </c>
@@ -8138,6 +8733,9 @@
       <c r="F238" s="2">
         <v>45678.620879588947</v>
       </c>
+      <c r="G238" t="s">
+        <v>228</v>
+      </c>
       <c r="H238" s="2">
         <v>45670.483854125981</v>
       </c>
@@ -8167,6 +8765,9 @@
       <c r="F239" s="2">
         <v>45681.43473375561</v>
       </c>
+      <c r="G239" t="s">
+        <v>228</v>
+      </c>
       <c r="H239" s="2">
         <v>45652.901539311169</v>
       </c>
@@ -8196,6 +8797,9 @@
       <c r="F240" s="2">
         <v>45677.912685144503</v>
       </c>
+      <c r="G240" t="s">
+        <v>228</v>
+      </c>
       <c r="H240" s="2">
         <v>45652.795763848197</v>
       </c>
@@ -8225,6 +8829,9 @@
       <c r="F241" s="2">
         <v>45684.254108755616</v>
       </c>
+      <c r="G241" t="s">
+        <v>228</v>
+      </c>
       <c r="H241" s="2">
         <v>45657.237523107462</v>
       </c>
@@ -8254,6 +8861,9 @@
       <c r="F242" s="2">
         <v>45682.543368014871</v>
       </c>
+      <c r="G242" t="s">
+        <v>228</v>
+      </c>
       <c r="H242" s="2">
         <v>45652.756678200058</v>
       </c>
@@ -8283,6 +8893,9 @@
       <c r="F243" s="2">
         <v>45683.946284681537</v>
       </c>
+      <c r="G243" t="s">
+        <v>228</v>
+      </c>
       <c r="H243" s="2">
         <v>45655.393634218577</v>
       </c>
@@ -8312,6 +8925,9 @@
       <c r="F244" s="2">
         <v>45678.654918940803</v>
       </c>
+      <c r="G244" t="s">
+        <v>228</v>
+      </c>
       <c r="H244" s="2">
         <v>45666.888726811172</v>
       </c>
@@ -8341,6 +8957,9 @@
       <c r="F245" s="2">
         <v>45671.421099496358</v>
       </c>
+      <c r="G245" t="s">
+        <v>228</v>
+      </c>
       <c r="H245" s="2">
         <v>45667.791076348207</v>
       </c>
@@ -8370,6 +8989,9 @@
       <c r="F246" s="2">
         <v>45674.746435144501</v>
       </c>
+      <c r="G246" t="s">
+        <v>228</v>
+      </c>
       <c r="H246" s="2">
         <v>45667.45481477413</v>
       </c>
@@ -8399,6 +9021,9 @@
       <c r="F247" s="2">
         <v>45682.905335607473</v>
       </c>
+      <c r="G247" t="s">
+        <v>228</v>
+      </c>
       <c r="H247" s="2">
         <v>45664.094305514867</v>
       </c>
@@ -8428,6 +9053,9 @@
       <c r="F248" s="2">
         <v>45681.980185144501</v>
       </c>
+      <c r="G248" t="s">
+        <v>228</v>
+      </c>
       <c r="H248" s="2">
         <v>45668.216909681541</v>
       </c>
@@ -8457,6 +9085,9 @@
       <c r="F249" s="2">
         <v>45679.135636533392</v>
       </c>
+      <c r="G249" t="s">
+        <v>228</v>
+      </c>
       <c r="H249" s="2">
         <v>45656.966597181541</v>
       </c>
@@ -8486,6 +9117,9 @@
       <c r="F250" s="2">
         <v>45678.59071755191</v>
       </c>
+      <c r="G250" t="s">
+        <v>228</v>
+      </c>
       <c r="H250" s="2">
         <v>45668.6589351445</v>
       </c>
@@ -8515,6 +9149,9 @@
       <c r="F251" s="2">
         <v>45682.83961801487</v>
       </c>
+      <c r="G251" t="s">
+        <v>228</v>
+      </c>
       <c r="H251" s="2">
         <v>45653.273888848213</v>
       </c>
@@ -8544,6 +9181,9 @@
       <c r="F252" s="2">
         <v>45685.02753468154</v>
       </c>
+      <c r="G252" t="s">
+        <v>228</v>
+      </c>
       <c r="H252" s="2">
         <v>45658.637476811171</v>
       </c>
@@ -8573,6 +9213,9 @@
       <c r="F253" s="2">
         <v>45679.8464814408</v>
       </c>
+      <c r="G253" t="s">
+        <v>228</v>
+      </c>
       <c r="H253" s="2">
         <v>45655.149768477837</v>
       </c>
@@ -8602,6 +9245,9 @@
       <c r="F254" s="2">
         <v>45677.607858755611</v>
       </c>
+      <c r="G254" t="s">
+        <v>228</v>
+      </c>
       <c r="H254" s="2">
         <v>45661.228657366722</v>
       </c>
@@ -8631,6 +9277,9 @@
       <c r="F255" s="2">
         <v>45675.730428200062</v>
       </c>
+      <c r="G255" t="s">
+        <v>228</v>
+      </c>
       <c r="H255" s="2">
         <v>45652.347523107463</v>
       </c>
@@ -8660,6 +9309,9 @@
       <c r="F256" s="2">
         <v>45684.481840237087</v>
       </c>
+      <c r="G256" t="s">
+        <v>228</v>
+      </c>
       <c r="H256" s="2">
         <v>45667.090486070418</v>
       </c>
@@ -8689,6 +9341,9 @@
       <c r="F257" s="2">
         <v>45674.838205977838</v>
       </c>
+      <c r="G257" t="s">
+        <v>228</v>
+      </c>
       <c r="H257" s="2">
         <v>45665.427939774127</v>
       </c>
@@ -8718,6 +9373,9 @@
       <c r="F258" s="2">
         <v>45674.693483755611</v>
       </c>
+      <c r="G258" t="s">
+        <v>228</v>
+      </c>
       <c r="H258" s="2">
         <v>45657.480891163017</v>
       </c>
@@ -8747,6 +9405,9 @@
       <c r="F259" s="2">
         <v>45672.917951348209</v>
       </c>
+      <c r="G259" t="s">
+        <v>228</v>
+      </c>
       <c r="H259" s="2">
         <v>45670.151319403762</v>
       </c>
@@ -8776,6 +9437,9 @@
       <c r="F260" s="2">
         <v>45679.020416625986</v>
       </c>
+      <c r="G260" t="s">
+        <v>228</v>
+      </c>
       <c r="H260" s="2">
         <v>45652.499236070427</v>
       </c>
@@ -8805,6 +9469,9 @@
       <c r="F261" s="2">
         <v>45671.533182829677</v>
       </c>
+      <c r="G261" t="s">
+        <v>228</v>
+      </c>
       <c r="H261" s="2">
         <v>45669.3070601445</v>
       </c>
@@ -8834,6 +9501,9 @@
       <c r="F262" s="2">
         <v>45681.954386533391</v>
       </c>
+      <c r="G262" t="s">
+        <v>228</v>
+      </c>
       <c r="H262" s="2">
         <v>45650.330358755607</v>
       </c>
@@ -8863,6 +9533,9 @@
       <c r="F263" s="2">
         <v>45684.85288190376</v>
       </c>
+      <c r="G263" t="s">
+        <v>228</v>
+      </c>
       <c r="H263" s="2">
         <v>45662.541886533392</v>
       </c>
@@ -8892,6 +9565,9 @@
       <c r="F264" s="2">
         <v>45676.403472181541</v>
       </c>
+      <c r="G264" t="s">
+        <v>228</v>
+      </c>
       <c r="H264" s="2">
         <v>45654.469652737098</v>
       </c>
@@ -8921,6 +9597,9 @@
       <c r="F265" s="2">
         <v>45676.786805514872</v>
       </c>
+      <c r="G265" t="s">
+        <v>228</v>
+      </c>
       <c r="H265" s="2">
         <v>45655.12836801487</v>
       </c>
@@ -8950,6 +9629,9 @@
       <c r="F266" s="2">
         <v>45671.785150422278</v>
       </c>
+      <c r="G266" t="s">
+        <v>228</v>
+      </c>
       <c r="H266" s="2">
         <v>45670.467905051912</v>
       </c>
@@ -8979,6 +9661,9 @@
       <c r="F267" s="2">
         <v>45672.791724496346</v>
       </c>
+      <c r="G267" t="s">
+        <v>228</v>
+      </c>
       <c r="H267" s="2">
         <v>45660.440509218577</v>
       </c>
@@ -9008,6 +9693,9 @@
       <c r="F268" s="2">
         <v>45680.395752274133</v>
       </c>
+      <c r="G268" t="s">
+        <v>228</v>
+      </c>
       <c r="H268" s="2">
         <v>45667.301678200063</v>
       </c>
@@ -9037,6 +9725,9 @@
       <c r="F269" s="2">
         <v>45682.881411996357</v>
       </c>
+      <c r="G269" t="s">
+        <v>228</v>
+      </c>
       <c r="H269" s="2">
         <v>45669.471550885253</v>
       </c>
@@ -9066,6 +9757,9 @@
       <c r="F270" s="2">
         <v>45684.689629588953</v>
       </c>
+      <c r="G270" t="s">
+        <v>228</v>
+      </c>
       <c r="H270" s="2">
         <v>45655.012013848209</v>
       </c>
@@ -9095,6 +9789,9 @@
       <c r="F271" s="2">
         <v>45679.023634218567</v>
       </c>
+      <c r="G271" t="s">
+        <v>228</v>
+      </c>
       <c r="H271" s="2">
         <v>45658.414247644498</v>
       </c>
@@ -9124,6 +9821,9 @@
       <c r="F272" s="2">
         <v>45683.479085607469</v>
       </c>
+      <c r="G272" t="s">
+        <v>228</v>
+      </c>
       <c r="H272" s="2">
         <v>45668.744178200061</v>
       </c>
@@ -9153,6 +9853,9 @@
       <c r="F273" s="2">
         <v>45678.337152737098</v>
       </c>
+      <c r="G273" t="s">
+        <v>228</v>
+      </c>
       <c r="H273" s="2">
         <v>45665.434282366718</v>
       </c>
@@ -9182,6 +9885,9 @@
       <c r="F274" s="2">
         <v>45681.210381903758</v>
       </c>
+      <c r="G274" t="s">
+        <v>228</v>
+      </c>
       <c r="H274" s="2">
         <v>45665.44562495932</v>
       </c>
@@ -9211,6 +9917,9 @@
       <c r="F275" s="2">
         <v>45680.965069403763</v>
       </c>
+      <c r="G275" t="s">
+        <v>228</v>
+      </c>
       <c r="H275" s="2">
         <v>45663.750879588937</v>
       </c>
@@ -9240,6 +9949,9 @@
       <c r="F276" s="2">
         <v>45680.893935144501</v>
       </c>
+      <c r="G276" t="s">
+        <v>228</v>
+      </c>
       <c r="H276" s="2">
         <v>45669.315416625977</v>
       </c>
@@ -9269,6 +9981,9 @@
       <c r="F277" s="2">
         <v>45675.55673607043</v>
       </c>
+      <c r="G277" t="s">
+        <v>228</v>
+      </c>
       <c r="H277" s="2">
         <v>45669.893067088953</v>
       </c>
@@ -9298,6 +10013,9 @@
       <c r="F278" s="2">
         <v>45677.401840237093</v>
       </c>
+      <c r="G278" t="s">
+        <v>228</v>
+      </c>
       <c r="H278" s="2">
         <v>45670.05842588524</v>
       </c>
@@ -9327,6 +10045,9 @@
       <c r="F279" s="2">
         <v>45683.507013848197</v>
       </c>
+      <c r="G279" t="s">
+        <v>228</v>
+      </c>
       <c r="H279" s="2">
         <v>45661.759398107468</v>
       </c>
@@ -9356,6 +10077,9 @@
       <c r="F280" s="2">
         <v>45672.076793940803</v>
       </c>
+      <c r="G280" t="s">
+        <v>228</v>
+      </c>
       <c r="H280" s="2">
         <v>45662.3158564408</v>
       </c>
@@ -9385,6 +10109,9 @@
       <c r="F281" s="2">
         <v>45681.03188653339</v>
       </c>
+      <c r="G281" t="s">
+        <v>228</v>
+      </c>
       <c r="H281" s="2">
         <v>45665.440821718577</v>
       </c>
@@ -9414,6 +10141,9 @@
       <c r="F282" s="2">
         <v>45683.524050885237</v>
       </c>
+      <c r="G282" t="s">
+        <v>228</v>
+      </c>
       <c r="H282" s="2">
         <v>45657.808530051909</v>
       </c>
@@ -9443,6 +10173,9 @@
       <c r="F283" s="2">
         <v>45679.464467551908</v>
       </c>
+      <c r="G283" t="s">
+        <v>228</v>
+      </c>
       <c r="H283" s="2">
         <v>45668.564421255607</v>
       </c>
@@ -9472,6 +10205,9 @@
       <c r="F284" s="2">
         <v>45675.645532366732</v>
       </c>
+      <c r="G284" t="s">
+        <v>228</v>
+      </c>
       <c r="H284" s="2">
         <v>45650.41946755191</v>
       </c>
@@ -9501,6 +10237,9 @@
       <c r="F285" s="2">
         <v>45683.009791625977</v>
       </c>
+      <c r="G285" t="s">
+        <v>228</v>
+      </c>
       <c r="H285" s="2">
         <v>45669.491076348197</v>
       </c>
@@ -9530,6 +10269,9 @@
       <c r="F286" s="2">
         <v>45672.589131903762</v>
       </c>
+      <c r="G286" t="s">
+        <v>228</v>
+      </c>
       <c r="H286" s="2">
         <v>45652.859791625982</v>
       </c>
@@ -9559,6 +10301,9 @@
       <c r="F287" s="2">
         <v>45680.029039311172</v>
       </c>
+      <c r="G287" t="s">
+        <v>228</v>
+      </c>
       <c r="H287" s="2">
         <v>45664.4870601445</v>
       </c>
@@ -9588,6 +10333,9 @@
       <c r="F288" s="2">
         <v>45682.770104125993</v>
       </c>
+      <c r="G288" t="s">
+        <v>228</v>
+      </c>
       <c r="H288" s="2">
         <v>45669.619432829677</v>
       </c>
@@ -9617,6 +10365,9 @@
       <c r="F289" s="2">
         <v>45677.649618014882</v>
       </c>
+      <c r="G289" t="s">
+        <v>228</v>
+      </c>
       <c r="H289" s="2">
         <v>45665.526585607462</v>
       </c>
@@ -9646,6 +10397,9 @@
       <c r="F290" s="2">
         <v>45681.540543940799</v>
       </c>
+      <c r="G290" t="s">
+        <v>228</v>
+      </c>
       <c r="H290" s="2">
         <v>45670.609247644497</v>
       </c>
@@ -9675,6 +10429,9 @@
       <c r="F291" s="2">
         <v>45681.304421255612</v>
       </c>
+      <c r="G291" t="s">
+        <v>228</v>
+      </c>
       <c r="H291" s="2">
         <v>45665.301145792648</v>
       </c>
@@ -9704,6 +10461,9 @@
       <c r="F292" s="2">
         <v>45683.294282366733</v>
       </c>
+      <c r="G292" t="s">
+        <v>228</v>
+      </c>
       <c r="H292" s="2">
         <v>45665.970636533391</v>
       </c>
@@ -9733,6 +10493,9 @@
       <c r="F293" s="2">
         <v>45680.766527737098</v>
       </c>
+      <c r="G293" t="s">
+        <v>228</v>
+      </c>
       <c r="H293" s="2">
         <v>45662.539039311167</v>
       </c>
@@ -9762,6 +10525,9 @@
       <c r="F294" s="2">
         <v>45681.679722181543</v>
       </c>
+      <c r="G294" t="s">
+        <v>228</v>
+      </c>
       <c r="H294" s="2">
         <v>45660.963784681539</v>
       </c>
@@ -9791,6 +10557,9 @@
       <c r="F295" s="2">
         <v>45682.093958292651</v>
       </c>
+      <c r="G295" t="s">
+        <v>228</v>
+      </c>
       <c r="H295" s="2">
         <v>45661.86614579265</v>
       </c>
@@ -9820,6 +10589,9 @@
       <c r="F296" s="2">
         <v>45681.876215237098</v>
       </c>
+      <c r="G296" t="s">
+        <v>228</v>
+      </c>
       <c r="H296" s="2">
         <v>45664.184085607463</v>
       </c>
@@ -9849,6 +10621,9 @@
       <c r="F297" s="2">
         <v>45679.038830977843</v>
       </c>
+      <c r="G297" t="s">
+        <v>228</v>
+      </c>
       <c r="H297" s="2">
         <v>45664.519479125993</v>
       </c>
@@ -9878,6 +10653,9 @@
       <c r="F298" s="2">
         <v>45672.41306708895</v>
       </c>
+      <c r="G298" t="s">
+        <v>228</v>
+      </c>
       <c r="H298" s="2">
         <v>45650.283009218583</v>
       </c>
@@ -9907,6 +10685,9 @@
       <c r="F299" s="2">
         <v>45679.507592551912</v>
       </c>
+      <c r="G299" t="s">
+        <v>228</v>
+      </c>
       <c r="H299" s="2">
         <v>45650.645798570433</v>
       </c>
@@ -9936,6 +10717,9 @@
       <c r="F300" s="2">
         <v>45682.181909681538</v>
       </c>
+      <c r="G300" t="s">
+        <v>228</v>
+      </c>
       <c r="H300" s="2">
         <v>45653.688541625983</v>
       </c>
@@ -9965,6 +10749,9 @@
       <c r="F301" s="2">
         <v>45677.364305514871</v>
       </c>
+      <c r="G301" t="s">
+        <v>228</v>
+      </c>
       <c r="H301" s="2">
         <v>45651.400567088953</v>
       </c>
@@ -9994,6 +10781,9 @@
       <c r="F302" s="2">
         <v>45679.958773107457</v>
       </c>
+      <c r="G302" t="s">
+        <v>228</v>
+      </c>
       <c r="H302" s="2">
         <v>45669.070520792651</v>
       </c>
@@ -10023,6 +10813,9 @@
       <c r="F303" s="2">
         <v>45674.880150422279</v>
       </c>
+      <c r="G303" t="s">
+        <v>228</v>
+      </c>
       <c r="H303" s="2">
         <v>45650.7530439408</v>
       </c>
@@ -10052,6 +10845,9 @@
       <c r="F304" s="2">
         <v>45677.918449033386</v>
       </c>
+      <c r="G304" t="s">
+        <v>228</v>
+      </c>
       <c r="H304" s="2">
         <v>45658.441388848209</v>
       </c>
@@ -10081,6 +10877,9 @@
       <c r="F305" s="2">
         <v>45685.158217551907</v>
       </c>
+      <c r="G305" t="s">
+        <v>228</v>
+      </c>
       <c r="H305" s="2">
         <v>45664.780763848197</v>
       </c>
@@ -10110,6 +10909,9 @@
       <c r="F306" s="2">
         <v>45674.215231440801</v>
       </c>
+      <c r="G306" t="s">
+        <v>228</v>
+      </c>
       <c r="H306" s="2">
         <v>45652.088530051908</v>
       </c>
@@ -10139,6 +10941,9 @@
       <c r="F307" s="2">
         <v>45682.027083292647</v>
       </c>
+      <c r="G307" t="s">
+        <v>228</v>
+      </c>
       <c r="H307" s="2">
         <v>45668.58961801487</v>
       </c>
@@ -10168,6 +10973,9 @@
       <c r="F308" s="2">
         <v>45675.837847181538</v>
       </c>
+      <c r="G308" t="s">
+        <v>228</v>
+      </c>
       <c r="H308" s="2">
         <v>45662.482719866734</v>
       </c>
@@ -10197,6 +11005,9 @@
       <c r="F309" s="2">
         <v>45684.5883564408</v>
       </c>
+      <c r="G309" t="s">
+        <v>228</v>
+      </c>
       <c r="H309" s="2">
         <v>45658.852210607467</v>
       </c>
@@ -10226,6 +11037,9 @@
       <c r="F310" s="2">
         <v>45682.634733755607</v>
       </c>
+      <c r="G310" t="s">
+        <v>228</v>
+      </c>
       <c r="H310" s="2">
         <v>45665.91952542228</v>
       </c>
@@ -10255,6 +11069,9 @@
       <c r="F311" s="2">
         <v>45685.093472181543</v>
       </c>
+      <c r="G311" t="s">
+        <v>228</v>
+      </c>
       <c r="H311" s="2">
         <v>45664.029224496357</v>
       </c>
@@ -10284,6 +11101,9 @@
       <c r="F312" s="2">
         <v>45684.315104125977</v>
       </c>
+      <c r="G312" t="s">
+        <v>228</v>
+      </c>
       <c r="H312" s="2">
         <v>45661.517245329691</v>
       </c>
@@ -10313,6 +11133,9 @@
       <c r="F313" s="2">
         <v>45678.082569403763</v>
       </c>
+      <c r="G313" t="s">
+        <v>228</v>
+      </c>
       <c r="H313" s="2">
         <v>45651.63113421858</v>
       </c>
@@ -10342,6 +11165,9 @@
       <c r="F314" s="2">
         <v>45679.076192088949</v>
       </c>
+      <c r="G314" t="s">
+        <v>228</v>
+      </c>
       <c r="H314" s="2">
         <v>45659.439768477838</v>
       </c>
@@ -10371,6 +11197,9 @@
       <c r="F315" s="2">
         <v>45683.919907366733</v>
       </c>
+      <c r="G315" t="s">
+        <v>228</v>
+      </c>
       <c r="H315" s="2">
         <v>45659.331666625993</v>
       </c>
@@ -10400,6 +11229,9 @@
       <c r="F316" s="2">
         <v>45675.727835607468</v>
       </c>
+      <c r="G316" t="s">
+        <v>228</v>
+      </c>
       <c r="H316" s="2">
         <v>45664.829409681537</v>
       </c>
@@ -10429,6 +11261,9 @@
       <c r="F317" s="2">
         <v>45678.553657366727</v>
       </c>
+      <c r="G317" t="s">
+        <v>228</v>
+      </c>
       <c r="H317" s="2">
         <v>45663.284548570431</v>
       </c>
@@ -10458,6 +11293,9 @@
       <c r="F318" s="2">
         <v>45676.241643477842</v>
       </c>
+      <c r="G318" t="s">
+        <v>228</v>
+      </c>
       <c r="H318" s="2">
         <v>45657.42528931117</v>
       </c>
@@ -10487,6 +11325,9 @@
       <c r="F319" s="2">
         <v>45675.385150422277</v>
       </c>
+      <c r="G319" t="s">
+        <v>228</v>
+      </c>
       <c r="H319" s="2">
         <v>45659.922048570428</v>
       </c>
@@ -10516,6 +11357,9 @@
       <c r="F320" s="2">
         <v>45681.706006903762</v>
       </c>
+      <c r="G320" t="s">
+        <v>228</v>
+      </c>
       <c r="H320" s="2">
         <v>45667.404004588949</v>
       </c>
@@ -10545,6 +11389,9 @@
       <c r="F321" s="2">
         <v>45683.222696718578</v>
       </c>
+      <c r="G321" t="s">
+        <v>228</v>
+      </c>
       <c r="H321" s="2">
         <v>45660.831898107463</v>
       </c>
@@ -10574,6 +11421,9 @@
       <c r="F322" s="2">
         <v>45674.93069440376</v>
       </c>
+      <c r="G322" t="s">
+        <v>228</v>
+      </c>
       <c r="H322" s="2">
         <v>45661.472754588947</v>
       </c>
@@ -10603,6 +11453,9 @@
       <c r="F323" s="2">
         <v>45684.1592476445</v>
       </c>
+      <c r="G323" t="s">
+        <v>228</v>
+      </c>
       <c r="H323" s="2">
         <v>45665.521238385241</v>
       </c>
@@ -10632,6 +11485,9 @@
       <c r="F324" s="2">
         <v>45681.081111070431</v>
       </c>
+      <c r="G324" t="s">
+        <v>228</v>
+      </c>
       <c r="H324" s="2">
         <v>45654.778425885241</v>
       </c>
@@ -10661,6 +11517,9 @@
       <c r="F325" s="2">
         <v>45677.949606440801</v>
       </c>
+      <c r="G325" t="s">
+        <v>228</v>
+      </c>
       <c r="H325" s="2">
         <v>45654.502974496347</v>
       </c>
@@ -10690,6 +11549,9 @@
       <c r="F326" s="2">
         <v>45674.115381903757</v>
       </c>
+      <c r="G326" t="s">
+        <v>228</v>
+      </c>
       <c r="H326" s="2">
         <v>45660.719560144513</v>
       </c>
@@ -10719,6 +11581,9 @@
       <c r="F327" s="2">
         <v>45678.022199033388</v>
       </c>
+      <c r="G327" t="s">
+        <v>228</v>
+      </c>
       <c r="H327" s="2">
         <v>45658.855046255623</v>
       </c>
@@ -10748,6 +11613,9 @@
       <c r="F328" s="2">
         <v>45680.588379588953</v>
       </c>
+      <c r="G328" t="s">
+        <v>228</v>
+      </c>
       <c r="H328" s="2">
         <v>45654.532372644513</v>
       </c>
@@ -10777,6 +11645,9 @@
       <c r="F329" s="2">
         <v>45679.803553200058</v>
       </c>
+      <c r="G329" t="s">
+        <v>228</v>
+      </c>
       <c r="H329" s="2">
         <v>45652.161666625987</v>
       </c>
@@ -10806,6 +11677,9 @@
       <c r="F330" s="2">
         <v>45674.496168940801</v>
       </c>
+      <c r="G330" t="s">
+        <v>228</v>
+      </c>
       <c r="H330" s="2">
         <v>45656.737453663023</v>
       </c>
@@ -10835,6 +11709,9 @@
       <c r="F331" s="2">
         <v>45671.43440968154</v>
       </c>
+      <c r="G331" t="s">
+        <v>228</v>
+      </c>
       <c r="H331" s="2">
         <v>45661.261631903762</v>
       </c>
@@ -10864,6 +11741,9 @@
       <c r="F332" s="2">
         <v>45676.621712922279</v>
       </c>
+      <c r="G332" t="s">
+        <v>228</v>
+      </c>
       <c r="H332" s="2">
         <v>45650.673530051907</v>
       </c>
@@ -10893,6 +11773,9 @@
       <c r="F333" s="2">
         <v>45678.69358792228</v>
       </c>
+      <c r="G333" t="s">
+        <v>228</v>
+      </c>
       <c r="H333" s="2">
         <v>45659.63890042228</v>
       </c>
@@ -10922,6 +11805,9 @@
       <c r="F334" s="2">
         <v>45677.191087922278</v>
       </c>
+      <c r="G334" t="s">
+        <v>228</v>
+      </c>
       <c r="H334" s="2">
         <v>45670.762650422279</v>
       </c>
@@ -10951,6 +11837,9 @@
       <c r="F335" s="2">
         <v>45676.809536996363</v>
       </c>
+      <c r="G335" t="s">
+        <v>228</v>
+      </c>
       <c r="H335" s="2">
         <v>45666.305786996352</v>
       </c>
@@ -10980,6 +11869,9 @@
       <c r="F336" s="2">
         <v>45677.408726811169</v>
       </c>
+      <c r="G336" t="s">
+        <v>228</v>
+      </c>
       <c r="H336" s="2">
         <v>45661.378379588947</v>
       </c>
@@ -11009,6 +11901,9 @@
       <c r="F337" s="2">
         <v>45680.676562459317</v>
       </c>
+      <c r="G337" t="s">
+        <v>228</v>
+      </c>
       <c r="H337" s="2">
         <v>45654.597858755616</v>
       </c>
@@ -11038,6 +11933,9 @@
       <c r="F338" s="2">
         <v>45671.621817088948</v>
       </c>
+      <c r="G338" t="s">
+        <v>228</v>
+      </c>
       <c r="H338" s="2">
         <v>45652.812106440797</v>
       </c>
@@ -11067,6 +11965,9 @@
       <c r="F339" s="2">
         <v>45684.675185144501</v>
       </c>
+      <c r="G339" t="s">
+        <v>228</v>
+      </c>
       <c r="H339" s="2">
         <v>45662.270775422279</v>
       </c>
@@ -11096,6 +11997,9 @@
       <c r="F340" s="2">
         <v>45675.583229125987</v>
       </c>
+      <c r="G340" t="s">
+        <v>228</v>
+      </c>
       <c r="H340" s="2">
         <v>45653.310219866733</v>
       </c>
@@ -11125,6 +12029,9 @@
       <c r="F341" s="2">
         <v>45682.733402737103</v>
       </c>
+      <c r="G341" t="s">
+        <v>228</v>
+      </c>
       <c r="H341" s="2">
         <v>45652.278830977833</v>
       </c>
@@ -11154,6 +12061,9 @@
       <c r="F342" s="2">
         <v>45679.845324033391</v>
       </c>
+      <c r="G342" t="s">
+        <v>228</v>
+      </c>
       <c r="H342" s="2">
         <v>45652.600902737096</v>
       </c>
@@ -11183,6 +12093,9 @@
       <c r="F343" s="2">
         <v>45676.486087922283</v>
       </c>
+      <c r="G343" t="s">
+        <v>228</v>
+      </c>
       <c r="H343" s="2">
         <v>45666.871342551909</v>
       </c>
@@ -11212,6 +12125,9 @@
       <c r="F344" s="2">
         <v>45677.568796255611</v>
       </c>
+      <c r="G344" t="s">
+        <v>228</v>
+      </c>
       <c r="H344" s="2">
         <v>45665.160937459317</v>
       </c>
@@ -11241,6 +12157,9 @@
       <c r="F345" s="2">
         <v>45677.317800885241</v>
       </c>
+      <c r="G345" t="s">
+        <v>228</v>
+      </c>
       <c r="H345" s="2">
         <v>45656.526192088953</v>
       </c>
@@ -11270,6 +12189,9 @@
       <c r="F346" s="2">
         <v>45683.4717476445</v>
       </c>
+      <c r="G346" t="s">
+        <v>228</v>
+      </c>
       <c r="H346" s="2">
         <v>45654.788229125981</v>
       </c>
@@ -11299,6 +12221,9 @@
       <c r="F347" s="2">
         <v>45685.097453663016</v>
       </c>
+      <c r="G347" t="s">
+        <v>228</v>
+      </c>
       <c r="H347" s="2">
         <v>45663.174780051908</v>
       </c>
@@ -11328,6 +12253,9 @@
       <c r="F348" s="2">
         <v>45680.92759255191</v>
       </c>
+      <c r="G348" t="s">
+        <v>228</v>
+      </c>
       <c r="H348" s="2">
         <v>45656.411851811172</v>
       </c>
@@ -11357,6 +12285,9 @@
       <c r="F349" s="2">
         <v>45676.284050885253</v>
       </c>
+      <c r="G349" t="s">
+        <v>228</v>
+      </c>
       <c r="H349" s="2">
         <v>45659.376620329691</v>
       </c>
@@ -11386,6 +12317,9 @@
       <c r="F350" s="2">
         <v>45676.015254588943</v>
       </c>
+      <c r="G350" t="s">
+        <v>228</v>
+      </c>
       <c r="H350" s="2">
         <v>45652.310289311172</v>
       </c>
@@ -11415,6 +12349,9 @@
       <c r="F351" s="2">
         <v>45684.456238385254</v>
       </c>
+      <c r="G351" t="s">
+        <v>228</v>
+      </c>
       <c r="H351" s="2">
         <v>45669.10665505191</v>
       </c>
@@ -11444,6 +12381,9 @@
       <c r="F352" s="2">
         <v>45672.831655051908</v>
       </c>
+      <c r="G352" t="s">
+        <v>228</v>
+      </c>
       <c r="H352" s="2">
         <v>45657.439803200061</v>
       </c>
@@ -11473,6 +12413,9 @@
       <c r="F353" s="2">
         <v>45684.022372644496</v>
       </c>
+      <c r="G353" t="s">
+        <v>228</v>
+      </c>
       <c r="H353" s="2">
         <v>45665.847499959324</v>
       </c>
@@ -11502,6 +12445,9 @@
       <c r="F354" s="2">
         <v>45678.166770792654</v>
       </c>
+      <c r="G354" t="s">
+        <v>228</v>
+      </c>
       <c r="H354" s="2">
         <v>45660.32200227413</v>
       </c>
@@ -11531,6 +12477,9 @@
       <c r="F355" s="2">
         <v>45684.163923570428</v>
       </c>
+      <c r="G355" t="s">
+        <v>228</v>
+      </c>
       <c r="H355" s="2">
         <v>45661.430405051913</v>
       </c>
@@ -11560,6 +12509,9 @@
       <c r="F356" s="2">
         <v>45678.506111070426</v>
       </c>
+      <c r="G356" t="s">
+        <v>228</v>
+      </c>
       <c r="H356" s="2">
         <v>45658.55333329265</v>
       </c>
@@ -11589,6 +12541,9 @@
       <c r="F357" s="2">
         <v>45678.278668940802</v>
       </c>
+      <c r="G357" t="s">
+        <v>228</v>
+      </c>
       <c r="H357" s="2">
         <v>45668.499444403758</v>
       </c>
@@ -11618,6 +12573,9 @@
       <c r="F358" s="2">
         <v>45673.125161996351</v>
       </c>
+      <c r="G358" t="s">
+        <v>228</v>
+      </c>
       <c r="H358" s="2">
         <v>45664.421099496358</v>
       </c>
@@ -11647,6 +12605,9 @@
       <c r="F359" s="2">
         <v>45673.83118051487</v>
       </c>
+      <c r="G359" t="s">
+        <v>228</v>
+      </c>
       <c r="H359" s="2">
         <v>45653.48269671858</v>
       </c>
@@ -11676,6 +12637,9 @@
       <c r="F360" s="2">
         <v>45678.86405088524</v>
       </c>
+      <c r="G360" t="s">
+        <v>228</v>
+      </c>
       <c r="H360" s="2">
         <v>45669.518645792647</v>
       </c>
@@ -11705,6 +12669,9 @@
       <c r="F361" s="2">
         <v>45680.815648107462</v>
       </c>
+      <c r="G361" t="s">
+        <v>228</v>
+      </c>
       <c r="H361" s="2">
         <v>45662.493090237098</v>
       </c>
@@ -11734,6 +12701,9 @@
       <c r="F362" s="2">
         <v>45677.463576348207</v>
       </c>
+      <c r="G362" t="s">
+        <v>228</v>
+      </c>
       <c r="H362" s="2">
         <v>45655.595740700061</v>
       </c>
@@ -11763,6 +12733,9 @@
       <c r="F363" s="2">
         <v>45679.530844866727</v>
       </c>
+      <c r="G363" t="s">
+        <v>228</v>
+      </c>
       <c r="H363" s="2">
         <v>45658.61001153339</v>
       </c>
@@ -11792,6 +12765,9 @@
       <c r="F364" s="2">
         <v>45681.587291625983</v>
       </c>
+      <c r="G364" t="s">
+        <v>228</v>
+      </c>
       <c r="H364" s="2">
         <v>45663.042094866723</v>
       </c>
@@ -11821,6 +12797,9 @@
       <c r="F365" s="2">
         <v>45684.280613385243</v>
       </c>
+      <c r="G365" t="s">
+        <v>228</v>
+      </c>
       <c r="H365" s="2">
         <v>45667.067036996363</v>
       </c>
@@ -11850,6 +12829,9 @@
       <c r="F366" s="2">
         <v>45682.112511533393</v>
       </c>
+      <c r="G366" t="s">
+        <v>228</v>
+      </c>
       <c r="H366" s="2">
         <v>45662.922731440798</v>
       </c>
@@ -11879,6 +12861,9 @@
       <c r="F367" s="2">
         <v>45677.87122681117</v>
       </c>
+      <c r="G367" t="s">
+        <v>228</v>
+      </c>
       <c r="H367" s="2">
         <v>45653.959722181542</v>
       </c>
@@ -11908,6 +12893,9 @@
       <c r="F368" s="2">
         <v>45675.388911996357</v>
       </c>
+      <c r="G368" t="s">
+        <v>228</v>
+      </c>
       <c r="H368" s="2">
         <v>45655.558634218578</v>
       </c>
@@ -11937,6 +12925,9 @@
       <c r="F369" s="2">
         <v>45676.069328663019</v>
       </c>
+      <c r="G369" t="s">
+        <v>228</v>
+      </c>
       <c r="H369" s="2">
         <v>45670.458761533388</v>
       </c>
@@ -11966,6 +12957,9 @@
       <c r="F370" s="2">
         <v>45683.848229125993</v>
       </c>
+      <c r="G370" t="s">
+        <v>228</v>
+      </c>
       <c r="H370" s="2">
         <v>45663.726678200059</v>
       </c>
@@ -11995,6 +12989,9 @@
       <c r="F371" s="2">
         <v>45677.369004588953</v>
       </c>
+      <c r="G371" t="s">
+        <v>228</v>
+      </c>
       <c r="H371" s="2">
         <v>45654.458194403764</v>
       </c>
@@ -12024,6 +13021,9 @@
       <c r="F372" s="2">
         <v>45671.674398107469</v>
       </c>
+      <c r="G372" t="s">
+        <v>228</v>
+      </c>
       <c r="H372" s="2">
         <v>45669.578229125982</v>
       </c>
@@ -12053,6 +13053,9 @@
       <c r="F373" s="2">
         <v>45672.729849496347</v>
       </c>
+      <c r="G373" t="s">
+        <v>228</v>
+      </c>
       <c r="H373" s="2">
         <v>45662.607002274133</v>
       </c>
@@ -12082,6 +13085,9 @@
       <c r="F374" s="2">
         <v>45671.400092551907</v>
       </c>
+      <c r="G374" t="s">
+        <v>228</v>
+      </c>
       <c r="H374" s="2">
         <v>45662.106620329687</v>
       </c>
@@ -12111,6 +13117,9 @@
       <c r="F375" s="2">
         <v>45674.059131903763</v>
       </c>
+      <c r="G375" t="s">
+        <v>228</v>
+      </c>
       <c r="H375" s="2">
         <v>45655.274560144513</v>
       </c>
@@ -12140,6 +13149,9 @@
       <c r="F376" s="2">
         <v>45673.59061338524</v>
       </c>
+      <c r="G376" t="s">
+        <v>228</v>
+      </c>
       <c r="H376" s="2">
         <v>45651.486898107469</v>
       </c>
@@ -12169,6 +13181,9 @@
       <c r="F377" s="2">
         <v>45682.237824033393</v>
       </c>
+      <c r="G377" t="s">
+        <v>228</v>
+      </c>
       <c r="H377" s="2">
         <v>45653.683078663023</v>
       </c>
@@ -12198,6 +13213,9 @@
       <c r="F378" s="2">
         <v>45679.705613385253</v>
       </c>
+      <c r="G378" t="s">
+        <v>228</v>
+      </c>
       <c r="H378" s="2">
         <v>45667.857847181542</v>
       </c>
@@ -12227,6 +13245,9 @@
       <c r="F379" s="2">
         <v>45677.680763848213</v>
       </c>
+      <c r="G379" t="s">
+        <v>228</v>
+      </c>
       <c r="H379" s="2">
         <v>45667.130486070433</v>
       </c>
@@ -12256,6 +13277,9 @@
       <c r="F380" s="2">
         <v>45676.060567088949</v>
       </c>
+      <c r="G380" t="s">
+        <v>228</v>
+      </c>
       <c r="H380" s="2">
         <v>45663.190752274131</v>
       </c>
@@ -12285,6 +13309,9 @@
       <c r="F381" s="2">
         <v>45671.511145792647</v>
       </c>
+      <c r="G381" t="s">
+        <v>228</v>
+      </c>
       <c r="H381" s="2">
         <v>45670.841886533388</v>
       </c>
@@ -12314,6 +13341,9 @@
       <c r="F382" s="2">
         <v>45683.88685181117</v>
       </c>
+      <c r="G382" t="s">
+        <v>228</v>
+      </c>
       <c r="H382" s="2">
         <v>45668.793032366717</v>
       </c>
@@ -12343,6 +13373,9 @@
       <c r="F383" s="2">
         <v>45680.258321718567</v>
       </c>
+      <c r="G383" t="s">
+        <v>228</v>
+      </c>
       <c r="H383" s="2">
         <v>45653.422835607467</v>
       </c>
@@ -12372,6 +13405,9 @@
       <c r="F384" s="2">
         <v>45681.775324033391</v>
       </c>
+      <c r="G384" t="s">
+        <v>228</v>
+      </c>
       <c r="H384" s="2">
         <v>45653.352708292652</v>
       </c>
@@ -12401,6 +13437,9 @@
       <c r="F385" s="2">
         <v>45678.769004588947</v>
       </c>
+      <c r="G385" t="s">
+        <v>228</v>
+      </c>
       <c r="H385" s="2">
         <v>45664.193113385241</v>
       </c>
@@ -12430,6 +13469,9 @@
       <c r="F386" s="2">
         <v>45681.503518477839</v>
       </c>
+      <c r="G386" t="s">
+        <v>228</v>
+      </c>
       <c r="H386" s="2">
         <v>45662.372754588949</v>
       </c>
@@ -12459,6 +13501,9 @@
       <c r="F387" s="2">
         <v>45684.976967551913</v>
       </c>
+      <c r="G387" t="s">
+        <v>228</v>
+      </c>
       <c r="H387" s="2">
         <v>45655.03770829265</v>
       </c>
@@ -12488,6 +13533,9 @@
       <c r="F388" s="2">
         <v>45684.765856440798</v>
       </c>
+      <c r="G388" t="s">
+        <v>228</v>
+      </c>
       <c r="H388" s="2">
         <v>45670.840393477833</v>
       </c>
@@ -12517,6 +13565,9 @@
       <c r="F389" s="2">
         <v>45682.097870329693</v>
       </c>
+      <c r="G389" t="s">
+        <v>228</v>
+      </c>
       <c r="H389" s="2">
         <v>45663.828159681543</v>
       </c>
@@ -12546,6 +13597,9 @@
       <c r="F390" s="2">
         <v>45673.833911996357</v>
       </c>
+      <c r="G390" t="s">
+        <v>228</v>
+      </c>
       <c r="H390" s="2">
         <v>45651.880347181541</v>
       </c>
@@ -12575,6 +13629,9 @@
       <c r="F391" s="2">
         <v>45674.223205977833</v>
       </c>
+      <c r="G391" t="s">
+        <v>228</v>
+      </c>
       <c r="H391" s="2">
         <v>45658.190092551908</v>
       </c>
@@ -12604,6 +13661,9 @@
       <c r="F392" s="2">
         <v>45680.153171255617</v>
       </c>
+      <c r="G392" t="s">
+        <v>228</v>
+      </c>
       <c r="H392" s="2">
         <v>45650.285381903763</v>
       </c>
@@ -12633,6 +13693,9 @@
       <c r="F393" s="2">
         <v>45684.829583292652</v>
       </c>
+      <c r="G393" t="s">
+        <v>228</v>
+      </c>
       <c r="H393" s="2">
         <v>45661.147303200058</v>
       </c>
@@ -12662,6 +13725,9 @@
       <c r="F394" s="2">
         <v>45684.271944403758</v>
       </c>
+      <c r="G394" t="s">
+        <v>228</v>
+      </c>
       <c r="H394" s="2">
         <v>45668.563888848214</v>
       </c>
@@ -12691,6 +13757,9 @@
       <c r="F395" s="2">
         <v>45678.311793940797</v>
       </c>
+      <c r="G395" t="s">
+        <v>228</v>
+      </c>
       <c r="H395" s="2">
         <v>45660.717777737103</v>
       </c>
@@ -12720,6 +13789,9 @@
       <c r="F396" s="2">
         <v>45673.260011533392</v>
       </c>
+      <c r="G396" t="s">
+        <v>228</v>
+      </c>
       <c r="H396" s="2">
         <v>45660.307997644501</v>
       </c>
@@ -12749,6 +13821,9 @@
       <c r="F397" s="2">
         <v>45681.500127274128</v>
       </c>
+      <c r="G397" t="s">
+        <v>228</v>
+      </c>
       <c r="H397" s="2">
         <v>45668.874826348198</v>
       </c>
@@ -12778,6 +13853,9 @@
       <c r="F398" s="2">
         <v>45674.123981440804</v>
       </c>
+      <c r="G398" t="s">
+        <v>228</v>
+      </c>
       <c r="H398" s="2">
         <v>45654.260682829678</v>
       </c>
@@ -12807,6 +13885,9 @@
       <c r="F399" s="2">
         <v>45674.856643477833</v>
       </c>
+      <c r="G399" t="s">
+        <v>228</v>
+      </c>
       <c r="H399" s="2">
         <v>45663.259189774129</v>
       </c>
@@ -12836,6 +13917,9 @@
       <c r="F400" s="2">
         <v>45684.464363385247</v>
       </c>
+      <c r="G400" t="s">
+        <v>228</v>
+      </c>
       <c r="H400" s="2">
         <v>45670.05337958895</v>
       </c>
@@ -12865,6 +13949,9 @@
       <c r="F401" s="2">
         <v>45673.671168940797</v>
       </c>
+      <c r="G401" t="s">
+        <v>228</v>
+      </c>
       <c r="H401" s="2">
         <v>45670.383298570428</v>
       </c>
@@ -12894,6 +13981,9 @@
       <c r="F402" s="2">
         <v>45679.27921292228</v>
       </c>
+      <c r="G402" t="s">
+        <v>228</v>
+      </c>
       <c r="H402" s="2">
         <v>45665.939907366723</v>
       </c>
@@ -12923,6 +14013,9 @@
       <c r="F403" s="2">
         <v>45681.426122644501</v>
       </c>
+      <c r="G403" t="s">
+        <v>228</v>
+      </c>
       <c r="H403" s="2">
         <v>45670.016504588937</v>
       </c>
@@ -12952,6 +14045,9 @@
       <c r="F404" s="2">
         <v>45671.845821718583</v>
       </c>
+      <c r="G404" t="s">
+        <v>228</v>
+      </c>
       <c r="H404" s="2">
         <v>45663.217164311172</v>
       </c>
@@ -12981,6 +14077,9 @@
       <c r="F405" s="2">
         <v>45684.442951348203</v>
       </c>
+      <c r="G405" t="s">
+        <v>228</v>
+      </c>
       <c r="H405" s="2">
         <v>45668.779409681541</v>
       </c>
@@ -13010,6 +14109,9 @@
       <c r="F406" s="2">
         <v>45676.973969866733</v>
       </c>
+      <c r="G406" t="s">
+        <v>228</v>
+      </c>
       <c r="H406" s="2">
         <v>45669.871365700063</v>
       </c>
@@ -13039,6 +14141,9 @@
       <c r="F407" s="2">
         <v>45674.903969866733</v>
       </c>
+      <c r="G407" t="s">
+        <v>228</v>
+      </c>
       <c r="H407" s="2">
         <v>45667.29342588524</v>
       </c>
@@ -13068,6 +14173,9 @@
       <c r="F408" s="2">
         <v>45678.950520792649</v>
       </c>
+      <c r="G408" t="s">
+        <v>228</v>
+      </c>
       <c r="H408" s="2">
         <v>45654.323692088947</v>
       </c>
@@ -13097,6 +14205,9 @@
       <c r="F409" s="2">
         <v>45684.530243014873</v>
       </c>
+      <c r="G409" t="s">
+        <v>228</v>
+      </c>
       <c r="H409" s="2">
         <v>45656.36106477413</v>
       </c>
@@ -13126,6 +14237,9 @@
       <c r="F410" s="2">
         <v>45674.656689774129</v>
       </c>
+      <c r="G410" t="s">
+        <v>228</v>
+      </c>
       <c r="H410" s="2">
         <v>45659.98364579265</v>
       </c>
@@ -13155,6 +14269,9 @@
       <c r="F411" s="2">
         <v>45678.294479125987</v>
       </c>
+      <c r="G411" t="s">
+        <v>228</v>
+      </c>
       <c r="H411" s="2">
         <v>45656.962141163021</v>
       </c>
@@ -13184,6 +14301,9 @@
       <c r="F412" s="2">
         <v>45683.682580977838</v>
       </c>
+      <c r="G412" t="s">
+        <v>228</v>
+      </c>
       <c r="H412" s="2">
         <v>45661.095011533391</v>
       </c>
@@ -13213,6 +14333,9 @@
       <c r="F413" s="2">
         <v>45683.361979125977</v>
       </c>
+      <c r="G413" t="s">
+        <v>228</v>
+      </c>
       <c r="H413" s="2">
         <v>45654.382488385243</v>
       </c>
@@ -13242,6 +14365,9 @@
       <c r="F414" s="2">
         <v>45677.32912032969</v>
       </c>
+      <c r="G414" t="s">
+        <v>228</v>
+      </c>
       <c r="H414" s="2">
         <v>45667.747488385241</v>
       </c>
@@ -13271,6 +14397,9 @@
       <c r="F415" s="2">
         <v>45677.25818282969</v>
       </c>
+      <c r="G415" t="s">
+        <v>228</v>
+      </c>
       <c r="H415" s="2">
         <v>45651.062731440798</v>
       </c>
@@ -13300,6 +14429,9 @@
       <c r="F416" s="2">
         <v>45671.92151616302</v>
       </c>
+      <c r="G416" t="s">
+        <v>228</v>
+      </c>
       <c r="H416" s="2">
         <v>45650.960810144497</v>
       </c>
@@ -13329,6 +14461,9 @@
       <c r="F417" s="2">
         <v>45674.198148107462</v>
       </c>
+      <c r="G417" t="s">
+        <v>228</v>
+      </c>
       <c r="H417" s="2">
         <v>45650.460786996351</v>
       </c>
@@ -13358,6 +14493,9 @@
       <c r="F418" s="2">
         <v>45673.857106440802</v>
       </c>
+      <c r="G418" t="s">
+        <v>228</v>
+      </c>
       <c r="H418" s="2">
         <v>45651.592893477828</v>
       </c>
@@ -13387,6 +14525,9 @@
       <c r="F419" s="2">
         <v>45676.505266163018</v>
       </c>
+      <c r="G419" t="s">
+        <v>228</v>
+      </c>
       <c r="H419" s="2">
         <v>45667.572036996353</v>
       </c>
@@ -13416,6 +14557,9 @@
       <c r="F420" s="2">
         <v>45684.444050885242</v>
       </c>
+      <c r="G420" t="s">
+        <v>228</v>
+      </c>
       <c r="H420" s="2">
         <v>45670.428472181542</v>
       </c>
@@ -13445,6 +14589,9 @@
       <c r="F421" s="2">
         <v>45682.408217551907</v>
       </c>
+      <c r="G421" t="s">
+        <v>228</v>
+      </c>
       <c r="H421" s="2">
         <v>45659.92561338524</v>
       </c>
@@ -13474,6 +14621,9 @@
       <c r="F422" s="2">
         <v>45682.852025422282</v>
       </c>
+      <c r="G422" t="s">
+        <v>228</v>
+      </c>
       <c r="H422" s="2">
         <v>45656.886944403763</v>
       </c>
@@ -13503,6 +14653,9 @@
       <c r="F423" s="2">
         <v>45675.462766163022</v>
       </c>
+      <c r="G423" t="s">
+        <v>228</v>
+      </c>
       <c r="H423" s="2">
         <v>45656.925821718578</v>
       </c>
@@ -13532,6 +14685,9 @@
       <c r="F424" s="2">
         <v>45677.797719866721</v>
       </c>
+      <c r="G424" t="s">
+        <v>228</v>
+      </c>
       <c r="H424" s="2">
         <v>45657.171921255613</v>
       </c>
@@ -13561,6 +14717,9 @@
       <c r="F425" s="2">
         <v>45680.550428200047</v>
       </c>
+      <c r="G425" t="s">
+        <v>228</v>
+      </c>
       <c r="H425" s="2">
         <v>45663.414826348213</v>
       </c>
@@ -13590,6 +14749,9 @@
       <c r="F426" s="2">
         <v>45683.520312459317</v>
       </c>
+      <c r="G426" t="s">
+        <v>228</v>
+      </c>
       <c r="H426" s="2">
         <v>45671.11173607043</v>
       </c>
@@ -13619,6 +14781,9 @@
       <c r="F427" s="2">
         <v>45677.7524189408</v>
       </c>
+      <c r="G427" t="s">
+        <v>228</v>
+      </c>
       <c r="H427" s="2">
         <v>45653.80568282969</v>
       </c>
@@ -13648,6 +14813,9 @@
       <c r="F428" s="2">
         <v>45685.182442088953</v>
       </c>
+      <c r="G428" t="s">
+        <v>228</v>
+      </c>
       <c r="H428" s="2">
         <v>45667.307673570431</v>
       </c>
@@ -13677,6 +14845,9 @@
       <c r="F429" s="2">
         <v>45681.869710607469</v>
       </c>
+      <c r="G429" t="s">
+        <v>228</v>
+      </c>
       <c r="H429" s="2">
         <v>45660.808854125993</v>
       </c>
@@ -13706,6 +14877,9 @@
       <c r="F430" s="2">
         <v>45679.917187459323</v>
       </c>
+      <c r="G430" t="s">
+        <v>228</v>
+      </c>
       <c r="H430" s="2">
         <v>45656.068495329688</v>
       </c>
@@ -13735,6 +14909,9 @@
       <c r="F431" s="2">
         <v>45679.33489579265</v>
       </c>
+      <c r="G431" t="s">
+        <v>228</v>
+      </c>
       <c r="H431" s="2">
         <v>45656.49931708895</v>
       </c>
@@ -13764,6 +14941,9 @@
       <c r="F432" s="2">
         <v>45672.323078663023</v>
       </c>
+      <c r="G432" t="s">
+        <v>228</v>
+      </c>
       <c r="H432" s="2">
         <v>45657.531400422282</v>
       </c>
@@ -13793,6 +14973,9 @@
       <c r="F433" s="2">
         <v>45671.291296255607</v>
       </c>
+      <c r="G433" t="s">
+        <v>228</v>
+      </c>
       <c r="H433" s="2">
         <v>45668.576411996357</v>
       </c>
@@ -13822,6 +15005,9 @@
       <c r="F434" s="2">
         <v>45678.073749959323</v>
       </c>
+      <c r="G434" t="s">
+        <v>228</v>
+      </c>
       <c r="H434" s="2">
         <v>45654.154224496357</v>
       </c>
@@ -13851,6 +15037,9 @@
       <c r="F435" s="2">
         <v>45679.604224496346</v>
       </c>
+      <c r="G435" t="s">
+        <v>228</v>
+      </c>
       <c r="H435" s="2">
         <v>45663.030868014866</v>
       </c>
@@ -13880,6 +15069,9 @@
       <c r="F436" s="2">
         <v>45681.550069403762</v>
       </c>
+      <c r="G436" t="s">
+        <v>228</v>
+      </c>
       <c r="H436" s="2">
         <v>45664.09306708895</v>
       </c>
@@ -13909,6 +15101,9 @@
       <c r="F437" s="2">
         <v>45682.047372644513</v>
       </c>
+      <c r="G437" t="s">
+        <v>228</v>
+      </c>
       <c r="H437" s="2">
         <v>45671.173807829677</v>
       </c>
@@ -13938,6 +15133,9 @@
       <c r="F438" s="2">
         <v>45671.293668940802</v>
       </c>
+      <c r="G438" t="s">
+        <v>228</v>
+      </c>
       <c r="H438" s="2">
         <v>45659.382523107473</v>
       </c>
@@ -13967,6 +15165,9 @@
       <c r="F439" s="2">
         <v>45678.567291625986</v>
       </c>
+      <c r="G439" t="s">
+        <v>228</v>
+      </c>
       <c r="H439" s="2">
         <v>45652.510451348207</v>
       </c>
@@ -13996,6 +15197,9 @@
       <c r="F440" s="2">
         <v>45683.725613385242</v>
       </c>
+      <c r="G440" t="s">
+        <v>228</v>
+      </c>
       <c r="H440" s="2">
         <v>45655.626192088937</v>
       </c>
@@ -14025,6 +15229,9 @@
       <c r="F441" s="2">
         <v>45676.274027737098</v>
       </c>
+      <c r="G441" t="s">
+        <v>228</v>
+      </c>
       <c r="H441" s="2">
         <v>45669.026597181539</v>
       </c>
@@ -14054,6 +15261,9 @@
       <c r="F442" s="2">
         <v>45683.544513848203</v>
       </c>
+      <c r="G442" t="s">
+        <v>228</v>
+      </c>
       <c r="H442" s="2">
         <v>45671.012708292648</v>
       </c>
@@ -14083,6 +15293,9 @@
       <c r="F443" s="2">
         <v>45672.954166625983</v>
       </c>
+      <c r="G443" t="s">
+        <v>228</v>
+      </c>
       <c r="H443" s="2">
         <v>45663.251759218583</v>
       </c>
@@ -14112,6 +15325,9 @@
       <c r="F444" s="2">
         <v>45679.602986070429</v>
       </c>
+      <c r="G444" t="s">
+        <v>228</v>
+      </c>
       <c r="H444" s="2">
         <v>45656.342858755612</v>
       </c>
@@ -14141,6 +15357,9 @@
       <c r="F445" s="2">
         <v>45674.481354125986</v>
       </c>
+      <c r="G445" t="s">
+        <v>228</v>
+      </c>
       <c r="H445" s="2">
         <v>45665.640567088943</v>
       </c>
@@ -14170,6 +15389,9 @@
       <c r="F446" s="2">
         <v>45679.699432829693</v>
       </c>
+      <c r="G446" t="s">
+        <v>228</v>
+      </c>
       <c r="H446" s="2">
         <v>45650.974317088949</v>
       </c>
@@ -14199,6 +15421,9 @@
       <c r="F447" s="2">
         <v>45680.76630782969</v>
       </c>
+      <c r="G447" t="s">
+        <v>228</v>
+      </c>
       <c r="H447" s="2">
         <v>45661.941516163017</v>
       </c>
@@ -14228,6 +15453,9 @@
       <c r="F448" s="2">
         <v>45681.604120329677</v>
       </c>
+      <c r="G448" t="s">
+        <v>228</v>
+      </c>
       <c r="H448" s="2">
         <v>45652.483078663019</v>
       </c>
@@ -14257,6 +15485,9 @@
       <c r="F449" s="2">
         <v>45672.244803200061</v>
       </c>
+      <c r="G449" t="s">
+        <v>228</v>
+      </c>
       <c r="H449" s="2">
         <v>45658.834305514873</v>
       </c>
@@ -14286,6 +15517,9 @@
       <c r="F450" s="2">
         <v>45677.347071718577</v>
       </c>
+      <c r="G450" t="s">
+        <v>228</v>
+      </c>
       <c r="H450" s="2">
         <v>45652.413124959319</v>
       </c>
@@ -14315,6 +15549,9 @@
       <c r="F451" s="2">
         <v>45674.340324033386</v>
       </c>
+      <c r="G451" t="s">
+        <v>228</v>
+      </c>
       <c r="H451" s="2">
         <v>45657.412835607473</v>
       </c>
@@ -14344,6 +15581,9 @@
       <c r="F452" s="2">
         <v>45679.685324033388</v>
       </c>
+      <c r="G452" t="s">
+        <v>228</v>
+      </c>
       <c r="H452" s="2">
         <v>45652.166770792654</v>
       </c>
@@ -14373,6 +15613,9 @@
       <c r="F453" s="2">
         <v>45674.405300885242</v>
       </c>
+      <c r="G453" t="s">
+        <v>228</v>
+      </c>
       <c r="H453" s="2">
         <v>45658.744363385253</v>
       </c>
@@ -14402,6 +15645,9 @@
       <c r="F454" s="2">
         <v>45684.576215237103</v>
       </c>
+      <c r="G454" t="s">
+        <v>228</v>
+      </c>
       <c r="H454" s="2">
         <v>45666.072280051907</v>
       </c>
@@ -14431,6 +15677,9 @@
       <c r="F455" s="2">
         <v>45677.159143477838</v>
       </c>
+      <c r="G455" t="s">
+        <v>228</v>
+      </c>
       <c r="H455" s="2">
         <v>45662.746435144501</v>
       </c>
@@ -14460,6 +15709,9 @@
       <c r="F456" s="2">
         <v>45677.4877314408</v>
       </c>
+      <c r="G456" t="s">
+        <v>228</v>
+      </c>
       <c r="H456" s="2">
         <v>45662.823634218577</v>
       </c>
@@ -14489,6 +15741,9 @@
       <c r="F457" s="2">
         <v>45682.485983755607</v>
       </c>
+      <c r="G457" t="s">
+        <v>228</v>
+      </c>
       <c r="H457" s="2">
         <v>45654.407337922283</v>
       </c>
@@ -14518,6 +15773,9 @@
       <c r="F458" s="2">
         <v>45673.569907366727</v>
       </c>
+      <c r="G458" t="s">
+        <v>228</v>
+      </c>
       <c r="H458" s="2">
         <v>45667.055763848213</v>
       </c>
@@ -14547,6 +15805,9 @@
       <c r="F459" s="2">
         <v>45684.54787032969</v>
       </c>
+      <c r="G459" t="s">
+        <v>228</v>
+      </c>
       <c r="H459" s="2">
         <v>45654.934062459317</v>
       </c>
@@ -14576,6 +15837,9 @@
       <c r="F460" s="2">
         <v>45684.686249959319</v>
       </c>
+      <c r="G460" t="s">
+        <v>228</v>
+      </c>
       <c r="H460" s="2">
         <v>45657.263032366733</v>
       </c>
@@ -14605,6 +15869,9 @@
       <c r="F461" s="2">
         <v>45678.764062459319</v>
       </c>
+      <c r="G461" t="s">
+        <v>228</v>
+      </c>
       <c r="H461" s="2">
         <v>45666.089768477839</v>
       </c>
@@ -14634,6 +15901,9 @@
       <c r="F462" s="2">
         <v>45678.079884218583</v>
       </c>
+      <c r="G462" t="s">
+        <v>228</v>
+      </c>
       <c r="H462" s="2">
         <v>45652.55468745932</v>
       </c>
@@ -14663,6 +15933,9 @@
       <c r="F463" s="2">
         <v>45677.328113385243</v>
       </c>
+      <c r="G463" t="s">
+        <v>228</v>
+      </c>
       <c r="H463" s="2">
         <v>45653.849444403757</v>
       </c>
@@ -14692,6 +15965,9 @@
       <c r="F464" s="2">
         <v>45676.093275422281</v>
       </c>
+      <c r="G464" t="s">
+        <v>228</v>
+      </c>
       <c r="H464" s="2">
         <v>45659.14498838524</v>
       </c>
@@ -14721,6 +15997,9 @@
       <c r="F465" s="2">
         <v>45675.001932829677</v>
       </c>
+      <c r="G465" t="s">
+        <v>228</v>
+      </c>
       <c r="H465" s="2">
         <v>45655.789895792652</v>
       </c>
@@ -14750,6 +16029,9 @@
       <c r="F466" s="2">
         <v>45677.593807829689</v>
       </c>
+      <c r="G466" t="s">
+        <v>228</v>
+      </c>
       <c r="H466" s="2">
         <v>45660.304085607473</v>
       </c>
@@ -14779,6 +16061,9 @@
       <c r="F467" s="2">
         <v>45676.498518477827</v>
       </c>
+      <c r="G467" t="s">
+        <v>228</v>
+      </c>
       <c r="H467" s="2">
         <v>45656.755868014872</v>
       </c>
@@ -14808,6 +16093,9 @@
       <c r="F468" s="2">
         <v>45682.189513848207</v>
       </c>
+      <c r="G468" t="s">
+        <v>228</v>
+      </c>
       <c r="H468" s="2">
         <v>45655.466122644502</v>
       </c>
@@ -14837,6 +16125,9 @@
       <c r="F469" s="2">
         <v>45671.786898107457</v>
       </c>
+      <c r="G469" t="s">
+        <v>228</v>
+      </c>
       <c r="H469" s="2">
         <v>45651.391273107467</v>
       </c>
@@ -14866,6 +16157,9 @@
       <c r="F470" s="2">
         <v>45671.549039311169</v>
       </c>
+      <c r="G470" t="s">
+        <v>228</v>
+      </c>
       <c r="H470" s="2">
         <v>45656.769467551909</v>
       </c>
@@ -14895,6 +16189,9 @@
       <c r="F471" s="2">
         <v>45680.237962922278</v>
       </c>
+      <c r="G471" t="s">
+        <v>228</v>
+      </c>
       <c r="H471" s="2">
         <v>45662.71640042228</v>
       </c>
@@ -14924,6 +16221,9 @@
       <c r="F472" s="2">
         <v>45683.001400422283</v>
       </c>
+      <c r="G472" t="s">
+        <v>228</v>
+      </c>
       <c r="H472" s="2">
         <v>45662.796863385243</v>
       </c>
@@ -14953,6 +16253,9 @@
       <c r="F473" s="2">
         <v>45680.825069403763</v>
       </c>
+      <c r="G473" t="s">
+        <v>228</v>
+      </c>
       <c r="H473" s="2">
         <v>45667.100462922281</v>
       </c>
@@ -14967,6 +16270,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P473" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
